--- a/Additional Libraries/Templates/Resources/PurchaseEntries.xlsx
+++ b/Additional Libraries/Templates/Resources/PurchaseEntries.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Dineshkumar\Projects\Excel-to-Tally-for-GST\E2TGST\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Dineshkumar\Projects\Excel-to-Tally-for-GST\Additional Libraries\Templates\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Invoice No</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>GSTIN/Party Ledger Name</t>
+  </si>
+  <si>
+    <t>Debit Note</t>
   </si>
 </sst>
 </file>
@@ -500,7 +503,7 @@
   <dimension ref="A1:M1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I1048576"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +518,7 @@
     <col min="8" max="8" width="14.85546875" style="3" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" style="3" customWidth="1"/>
     <col min="10" max="10" width="19" style="1" customWidth="1"/>
-    <col min="11" max="13" width="0" style="1" hidden="1"/>
+    <col min="11" max="13" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
@@ -4640,7 +4643,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Lists!$B$2:$B$6</xm:f>
+            <xm:f>Lists!$B$2:$B$8</xm:f>
           </x14:formula1>
           <xm:sqref>I2:I1001</xm:sqref>
         </x14:dataValidation>
@@ -4659,10 +4662,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Lists"/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A1048576"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -4720,8 +4723,13 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3I9eoWRern4OcmTePoQKn0TBBGovSxGbKVduHPkIGTA1smkXpWawyozzpGLIM2B8qUyV+2bQDftAChPAfckO7g==" saltValue="m6GmIdYnMb7VCu43w2eT4w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Vu1kYGz7ZMZHCuvuWn+n42agZ8ciJani7m134xhKAhJdPDKCUE6hKZqpKGwEwijaxh3XyLXjKhbbFydyfPmz9Q==" saltValue="QI4vcMWdu8xCAQTPXgvdkQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Additional Libraries/Templates/Resources/PurchaseEntries.xlsx
+++ b/Additional Libraries/Templates/Resources/PurchaseEntries.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Invoice No</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Debit Note</t>
+  </si>
+  <si>
+    <t>Narration</t>
   </si>
 </sst>
 </file>
@@ -500,10 +503,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="PurchaseEntries"/>
-  <dimension ref="A1:M1001"/>
+  <dimension ref="A1:N1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,13 +519,13 @@
     <col min="6" max="6" width="15.5703125" style="4" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="19" style="1" customWidth="1"/>
-    <col min="11" max="13" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1" hidden="1"/>
+    <col min="9" max="10" width="15.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" style="1" customWidth="1"/>
+    <col min="12" max="14" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
@@ -553,8 +556,11 @@
       <c r="J1" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
@@ -564,9 +570,10 @@
       <c r="G2" s="15"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2" s="13"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="14"/>
@@ -576,9 +583,10 @@
       <c r="G3" s="15"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" s="13"/>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
@@ -588,9 +596,10 @@
       <c r="G4" s="15"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" s="13"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
@@ -600,9 +609,10 @@
       <c r="G5" s="15"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="13"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
@@ -612,9 +622,10 @@
       <c r="G6" s="15"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="13"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
@@ -624,9 +635,10 @@
       <c r="G7" s="15"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="13"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
@@ -636,9 +648,10 @@
       <c r="G8" s="15"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8" s="13"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
@@ -648,9 +661,10 @@
       <c r="G9" s="15"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" s="13"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -660,9 +674,10 @@
       <c r="G10" s="15"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" s="13"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
@@ -672,3967 +687,4958 @@
       <c r="G11" s="19"/>
       <c r="H11" s="17"/>
       <c r="I11" s="13"/>
-      <c r="J11" s="20"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J11" s="13"/>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E12" s="16"/>
       <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E13" s="16"/>
       <c r="I13" s="13"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E14" s="16"/>
       <c r="I14" s="13"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E15" s="16"/>
       <c r="I15" s="13"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E16" s="16"/>
       <c r="I16" s="13"/>
-    </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" s="16"/>
       <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E18" s="16"/>
       <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19" s="16"/>
       <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E20" s="16"/>
       <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E21" s="16"/>
       <c r="I21" s="13"/>
-    </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E22" s="16"/>
       <c r="I22" s="13"/>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E23" s="16"/>
       <c r="I23" s="13"/>
-    </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E24" s="16"/>
       <c r="I24" s="13"/>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E25" s="16"/>
       <c r="I25" s="13"/>
-    </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E26" s="16"/>
       <c r="I26" s="13"/>
-    </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E27" s="16"/>
       <c r="I27" s="13"/>
-    </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E28" s="16"/>
       <c r="I28" s="13"/>
-    </row>
-    <row r="29" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E29" s="16"/>
       <c r="I29" s="13"/>
-    </row>
-    <row r="30" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E30" s="16"/>
       <c r="I30" s="13"/>
-    </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E31" s="16"/>
       <c r="I31" s="13"/>
-    </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="13"/>
+    </row>
+    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E32" s="16"/>
       <c r="I32" s="13"/>
-    </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="13"/>
+    </row>
+    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E33" s="16"/>
       <c r="I33" s="13"/>
-    </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E34" s="16"/>
       <c r="I34" s="13"/>
-    </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E35" s="16"/>
       <c r="I35" s="13"/>
-    </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="13"/>
+    </row>
+    <row r="36" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E36" s="16"/>
       <c r="I36" s="13"/>
-    </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="13"/>
+    </row>
+    <row r="37" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E37" s="16"/>
       <c r="I37" s="13"/>
-    </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="13"/>
+    </row>
+    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E38" s="16"/>
       <c r="I38" s="13"/>
-    </row>
-    <row r="39" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="13"/>
+    </row>
+    <row r="39" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E39" s="16"/>
       <c r="I39" s="13"/>
-    </row>
-    <row r="40" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="13"/>
+    </row>
+    <row r="40" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E40" s="16"/>
       <c r="I40" s="13"/>
-    </row>
-    <row r="41" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="13"/>
+    </row>
+    <row r="41" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E41" s="16"/>
       <c r="I41" s="13"/>
-    </row>
-    <row r="42" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="13"/>
+    </row>
+    <row r="42" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E42" s="16"/>
       <c r="I42" s="13"/>
-    </row>
-    <row r="43" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="13"/>
+    </row>
+    <row r="43" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E43" s="16"/>
       <c r="I43" s="13"/>
-    </row>
-    <row r="44" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="13"/>
+    </row>
+    <row r="44" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E44" s="16"/>
       <c r="I44" s="13"/>
-    </row>
-    <row r="45" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="13"/>
+    </row>
+    <row r="45" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E45" s="16"/>
       <c r="I45" s="13"/>
-    </row>
-    <row r="46" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="13"/>
+    </row>
+    <row r="46" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E46" s="16"/>
       <c r="I46" s="13"/>
-    </row>
-    <row r="47" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="13"/>
+    </row>
+    <row r="47" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E47" s="16"/>
       <c r="I47" s="13"/>
-    </row>
-    <row r="48" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="13"/>
+    </row>
+    <row r="48" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E48" s="16"/>
       <c r="I48" s="13"/>
-    </row>
-    <row r="49" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="13"/>
+    </row>
+    <row r="49" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E49" s="16"/>
       <c r="I49" s="13"/>
-    </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="13"/>
+    </row>
+    <row r="50" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E50" s="16"/>
       <c r="I50" s="13"/>
-    </row>
-    <row r="51" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="13"/>
+    </row>
+    <row r="51" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E51" s="16"/>
       <c r="I51" s="13"/>
-    </row>
-    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="13"/>
+    </row>
+    <row r="52" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E52" s="16"/>
       <c r="I52" s="13"/>
-    </row>
-    <row r="53" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="13"/>
+    </row>
+    <row r="53" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E53" s="16"/>
       <c r="I53" s="13"/>
-    </row>
-    <row r="54" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="13"/>
+    </row>
+    <row r="54" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E54" s="16"/>
       <c r="I54" s="13"/>
-    </row>
-    <row r="55" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="13"/>
+    </row>
+    <row r="55" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E55" s="16"/>
       <c r="I55" s="13"/>
-    </row>
-    <row r="56" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="13"/>
+    </row>
+    <row r="56" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E56" s="16"/>
       <c r="I56" s="13"/>
-    </row>
-    <row r="57" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="13"/>
+    </row>
+    <row r="57" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E57" s="16"/>
       <c r="I57" s="13"/>
-    </row>
-    <row r="58" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="13"/>
+    </row>
+    <row r="58" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E58" s="16"/>
       <c r="I58" s="13"/>
-    </row>
-    <row r="59" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="13"/>
+    </row>
+    <row r="59" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E59" s="16"/>
       <c r="I59" s="13"/>
-    </row>
-    <row r="60" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="13"/>
+    </row>
+    <row r="60" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E60" s="16"/>
       <c r="I60" s="13"/>
-    </row>
-    <row r="61" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="13"/>
+    </row>
+    <row r="61" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E61" s="16"/>
       <c r="I61" s="13"/>
-    </row>
-    <row r="62" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="13"/>
+    </row>
+    <row r="62" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E62" s="16"/>
       <c r="I62" s="13"/>
-    </row>
-    <row r="63" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="13"/>
+    </row>
+    <row r="63" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E63" s="16"/>
       <c r="I63" s="13"/>
-    </row>
-    <row r="64" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="13"/>
+    </row>
+    <row r="64" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E64" s="16"/>
       <c r="I64" s="13"/>
-    </row>
-    <row r="65" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="13"/>
+    </row>
+    <row r="65" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E65" s="16"/>
       <c r="I65" s="13"/>
-    </row>
-    <row r="66" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="13"/>
+    </row>
+    <row r="66" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E66" s="16"/>
       <c r="I66" s="13"/>
-    </row>
-    <row r="67" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="13"/>
+    </row>
+    <row r="67" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E67" s="16"/>
       <c r="I67" s="13"/>
-    </row>
-    <row r="68" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="13"/>
+    </row>
+    <row r="68" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E68" s="16"/>
       <c r="I68" s="13"/>
-    </row>
-    <row r="69" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="13"/>
+    </row>
+    <row r="69" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E69" s="16"/>
       <c r="I69" s="13"/>
-    </row>
-    <row r="70" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="13"/>
+    </row>
+    <row r="70" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E70" s="16"/>
       <c r="I70" s="13"/>
-    </row>
-    <row r="71" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="13"/>
+    </row>
+    <row r="71" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E71" s="16"/>
       <c r="I71" s="13"/>
-    </row>
-    <row r="72" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="13"/>
+    </row>
+    <row r="72" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E72" s="16"/>
       <c r="I72" s="13"/>
-    </row>
-    <row r="73" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="13"/>
+    </row>
+    <row r="73" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E73" s="16"/>
       <c r="I73" s="13"/>
-    </row>
-    <row r="74" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="13"/>
+    </row>
+    <row r="74" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E74" s="16"/>
       <c r="I74" s="13"/>
-    </row>
-    <row r="75" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="13"/>
+    </row>
+    <row r="75" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E75" s="16"/>
       <c r="I75" s="13"/>
-    </row>
-    <row r="76" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="13"/>
+    </row>
+    <row r="76" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E76" s="16"/>
       <c r="I76" s="13"/>
-    </row>
-    <row r="77" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="13"/>
+    </row>
+    <row r="77" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E77" s="16"/>
       <c r="I77" s="13"/>
-    </row>
-    <row r="78" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="13"/>
+    </row>
+    <row r="78" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E78" s="16"/>
       <c r="I78" s="13"/>
-    </row>
-    <row r="79" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="13"/>
+    </row>
+    <row r="79" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E79" s="16"/>
       <c r="I79" s="13"/>
-    </row>
-    <row r="80" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="13"/>
+    </row>
+    <row r="80" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E80" s="16"/>
       <c r="I80" s="13"/>
-    </row>
-    <row r="81" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="13"/>
+    </row>
+    <row r="81" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E81" s="16"/>
       <c r="I81" s="13"/>
-    </row>
-    <row r="82" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="13"/>
+    </row>
+    <row r="82" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E82" s="16"/>
       <c r="I82" s="13"/>
-    </row>
-    <row r="83" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="13"/>
+    </row>
+    <row r="83" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E83" s="16"/>
       <c r="I83" s="13"/>
-    </row>
-    <row r="84" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="13"/>
+    </row>
+    <row r="84" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E84" s="16"/>
       <c r="I84" s="13"/>
-    </row>
-    <row r="85" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="13"/>
+    </row>
+    <row r="85" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E85" s="16"/>
       <c r="I85" s="13"/>
-    </row>
-    <row r="86" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="13"/>
+    </row>
+    <row r="86" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E86" s="16"/>
       <c r="I86" s="13"/>
-    </row>
-    <row r="87" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="13"/>
+    </row>
+    <row r="87" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E87" s="16"/>
       <c r="I87" s="13"/>
-    </row>
-    <row r="88" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="13"/>
+    </row>
+    <row r="88" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E88" s="16"/>
       <c r="I88" s="13"/>
-    </row>
-    <row r="89" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="13"/>
+    </row>
+    <row r="89" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E89" s="16"/>
       <c r="I89" s="13"/>
-    </row>
-    <row r="90" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="13"/>
+    </row>
+    <row r="90" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E90" s="16"/>
       <c r="I90" s="13"/>
-    </row>
-    <row r="91" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="13"/>
+    </row>
+    <row r="91" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E91" s="16"/>
       <c r="I91" s="13"/>
-    </row>
-    <row r="92" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="13"/>
+    </row>
+    <row r="92" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E92" s="16"/>
       <c r="I92" s="13"/>
-    </row>
-    <row r="93" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J92" s="13"/>
+    </row>
+    <row r="93" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E93" s="16"/>
       <c r="I93" s="13"/>
-    </row>
-    <row r="94" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="13"/>
+    </row>
+    <row r="94" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E94" s="16"/>
       <c r="I94" s="13"/>
-    </row>
-    <row r="95" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="13"/>
+    </row>
+    <row r="95" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E95" s="16"/>
       <c r="I95" s="13"/>
-    </row>
-    <row r="96" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="13"/>
+    </row>
+    <row r="96" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E96" s="16"/>
       <c r="I96" s="13"/>
-    </row>
-    <row r="97" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="13"/>
+    </row>
+    <row r="97" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E97" s="16"/>
       <c r="I97" s="13"/>
-    </row>
-    <row r="98" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="13"/>
+    </row>
+    <row r="98" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E98" s="16"/>
       <c r="I98" s="13"/>
-    </row>
-    <row r="99" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="13"/>
+    </row>
+    <row r="99" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E99" s="16"/>
       <c r="I99" s="13"/>
-    </row>
-    <row r="100" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="13"/>
+    </row>
+    <row r="100" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E100" s="16"/>
       <c r="I100" s="13"/>
-    </row>
-    <row r="101" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="13"/>
+    </row>
+    <row r="101" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E101" s="16"/>
       <c r="I101" s="13"/>
-    </row>
-    <row r="102" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J101" s="13"/>
+    </row>
+    <row r="102" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E102" s="16"/>
       <c r="I102" s="13"/>
-    </row>
-    <row r="103" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J102" s="13"/>
+    </row>
+    <row r="103" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E103" s="16"/>
       <c r="I103" s="13"/>
-    </row>
-    <row r="104" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J103" s="13"/>
+    </row>
+    <row r="104" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E104" s="16"/>
       <c r="I104" s="13"/>
-    </row>
-    <row r="105" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J104" s="13"/>
+    </row>
+    <row r="105" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E105" s="16"/>
       <c r="I105" s="13"/>
-    </row>
-    <row r="106" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J105" s="13"/>
+    </row>
+    <row r="106" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E106" s="16"/>
       <c r="I106" s="13"/>
-    </row>
-    <row r="107" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J106" s="13"/>
+    </row>
+    <row r="107" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E107" s="16"/>
       <c r="I107" s="13"/>
-    </row>
-    <row r="108" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J107" s="13"/>
+    </row>
+    <row r="108" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E108" s="16"/>
       <c r="I108" s="13"/>
-    </row>
-    <row r="109" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J108" s="13"/>
+    </row>
+    <row r="109" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E109" s="16"/>
       <c r="I109" s="13"/>
-    </row>
-    <row r="110" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J109" s="13"/>
+    </row>
+    <row r="110" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E110" s="16"/>
       <c r="I110" s="13"/>
-    </row>
-    <row r="111" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J110" s="13"/>
+    </row>
+    <row r="111" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E111" s="16"/>
       <c r="I111" s="13"/>
-    </row>
-    <row r="112" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J111" s="13"/>
+    </row>
+    <row r="112" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E112" s="16"/>
       <c r="I112" s="13"/>
-    </row>
-    <row r="113" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J112" s="13"/>
+    </row>
+    <row r="113" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E113" s="16"/>
       <c r="I113" s="13"/>
-    </row>
-    <row r="114" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J113" s="13"/>
+    </row>
+    <row r="114" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E114" s="16"/>
       <c r="I114" s="13"/>
-    </row>
-    <row r="115" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J114" s="13"/>
+    </row>
+    <row r="115" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E115" s="16"/>
       <c r="I115" s="13"/>
-    </row>
-    <row r="116" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J115" s="13"/>
+    </row>
+    <row r="116" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E116" s="16"/>
       <c r="I116" s="13"/>
-    </row>
-    <row r="117" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J116" s="13"/>
+    </row>
+    <row r="117" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E117" s="16"/>
       <c r="I117" s="13"/>
-    </row>
-    <row r="118" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J117" s="13"/>
+    </row>
+    <row r="118" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E118" s="16"/>
       <c r="I118" s="13"/>
-    </row>
-    <row r="119" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J118" s="13"/>
+    </row>
+    <row r="119" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E119" s="16"/>
       <c r="I119" s="13"/>
-    </row>
-    <row r="120" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J119" s="13"/>
+    </row>
+    <row r="120" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E120" s="16"/>
       <c r="I120" s="13"/>
-    </row>
-    <row r="121" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J120" s="13"/>
+    </row>
+    <row r="121" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E121" s="16"/>
       <c r="I121" s="13"/>
-    </row>
-    <row r="122" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J121" s="13"/>
+    </row>
+    <row r="122" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E122" s="16"/>
       <c r="I122" s="13"/>
-    </row>
-    <row r="123" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J122" s="13"/>
+    </row>
+    <row r="123" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E123" s="16"/>
       <c r="I123" s="13"/>
-    </row>
-    <row r="124" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J123" s="13"/>
+    </row>
+    <row r="124" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E124" s="16"/>
       <c r="I124" s="13"/>
-    </row>
-    <row r="125" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J124" s="13"/>
+    </row>
+    <row r="125" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E125" s="16"/>
       <c r="I125" s="13"/>
-    </row>
-    <row r="126" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J125" s="13"/>
+    </row>
+    <row r="126" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E126" s="16"/>
       <c r="I126" s="13"/>
-    </row>
-    <row r="127" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J126" s="13"/>
+    </row>
+    <row r="127" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E127" s="16"/>
       <c r="I127" s="13"/>
-    </row>
-    <row r="128" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J127" s="13"/>
+    </row>
+    <row r="128" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E128" s="16"/>
       <c r="I128" s="13"/>
-    </row>
-    <row r="129" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J128" s="13"/>
+    </row>
+    <row r="129" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E129" s="16"/>
       <c r="I129" s="13"/>
-    </row>
-    <row r="130" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J129" s="13"/>
+    </row>
+    <row r="130" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E130" s="16"/>
       <c r="I130" s="13"/>
-    </row>
-    <row r="131" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J130" s="13"/>
+    </row>
+    <row r="131" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E131" s="16"/>
       <c r="I131" s="13"/>
-    </row>
-    <row r="132" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J131" s="13"/>
+    </row>
+    <row r="132" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E132" s="16"/>
       <c r="I132" s="13"/>
-    </row>
-    <row r="133" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J132" s="13"/>
+    </row>
+    <row r="133" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E133" s="16"/>
       <c r="I133" s="13"/>
-    </row>
-    <row r="134" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J133" s="13"/>
+    </row>
+    <row r="134" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E134" s="16"/>
       <c r="I134" s="13"/>
-    </row>
-    <row r="135" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J134" s="13"/>
+    </row>
+    <row r="135" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E135" s="16"/>
       <c r="I135" s="13"/>
-    </row>
-    <row r="136" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J135" s="13"/>
+    </row>
+    <row r="136" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E136" s="16"/>
       <c r="I136" s="13"/>
-    </row>
-    <row r="137" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J136" s="13"/>
+    </row>
+    <row r="137" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E137" s="16"/>
       <c r="I137" s="13"/>
-    </row>
-    <row r="138" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J137" s="13"/>
+    </row>
+    <row r="138" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E138" s="16"/>
       <c r="I138" s="13"/>
-    </row>
-    <row r="139" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J138" s="13"/>
+    </row>
+    <row r="139" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E139" s="16"/>
       <c r="I139" s="13"/>
-    </row>
-    <row r="140" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J139" s="13"/>
+    </row>
+    <row r="140" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E140" s="16"/>
       <c r="I140" s="13"/>
-    </row>
-    <row r="141" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J140" s="13"/>
+    </row>
+    <row r="141" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E141" s="16"/>
       <c r="I141" s="13"/>
-    </row>
-    <row r="142" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J141" s="13"/>
+    </row>
+    <row r="142" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E142" s="16"/>
       <c r="I142" s="13"/>
-    </row>
-    <row r="143" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J142" s="13"/>
+    </row>
+    <row r="143" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E143" s="16"/>
       <c r="I143" s="13"/>
-    </row>
-    <row r="144" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J143" s="13"/>
+    </row>
+    <row r="144" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E144" s="16"/>
       <c r="I144" s="13"/>
-    </row>
-    <row r="145" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J144" s="13"/>
+    </row>
+    <row r="145" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E145" s="16"/>
       <c r="I145" s="13"/>
-    </row>
-    <row r="146" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J145" s="13"/>
+    </row>
+    <row r="146" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E146" s="16"/>
       <c r="I146" s="13"/>
-    </row>
-    <row r="147" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J146" s="13"/>
+    </row>
+    <row r="147" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E147" s="16"/>
       <c r="I147" s="13"/>
-    </row>
-    <row r="148" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J147" s="13"/>
+    </row>
+    <row r="148" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E148" s="16"/>
       <c r="I148" s="13"/>
-    </row>
-    <row r="149" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J148" s="13"/>
+    </row>
+    <row r="149" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E149" s="16"/>
       <c r="I149" s="13"/>
-    </row>
-    <row r="150" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J149" s="13"/>
+    </row>
+    <row r="150" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E150" s="16"/>
       <c r="I150" s="13"/>
-    </row>
-    <row r="151" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J150" s="13"/>
+    </row>
+    <row r="151" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E151" s="16"/>
       <c r="I151" s="13"/>
-    </row>
-    <row r="152" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J151" s="13"/>
+    </row>
+    <row r="152" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E152" s="16"/>
       <c r="I152" s="13"/>
-    </row>
-    <row r="153" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J152" s="13"/>
+    </row>
+    <row r="153" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E153" s="16"/>
       <c r="I153" s="13"/>
-    </row>
-    <row r="154" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J153" s="13"/>
+    </row>
+    <row r="154" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E154" s="16"/>
       <c r="I154" s="13"/>
-    </row>
-    <row r="155" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J154" s="13"/>
+    </row>
+    <row r="155" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E155" s="16"/>
       <c r="I155" s="13"/>
-    </row>
-    <row r="156" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J155" s="13"/>
+    </row>
+    <row r="156" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E156" s="16"/>
       <c r="I156" s="13"/>
-    </row>
-    <row r="157" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J156" s="13"/>
+    </row>
+    <row r="157" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E157" s="16"/>
       <c r="I157" s="13"/>
-    </row>
-    <row r="158" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J157" s="13"/>
+    </row>
+    <row r="158" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E158" s="16"/>
       <c r="I158" s="13"/>
-    </row>
-    <row r="159" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J158" s="13"/>
+    </row>
+    <row r="159" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E159" s="16"/>
       <c r="I159" s="13"/>
-    </row>
-    <row r="160" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J159" s="13"/>
+    </row>
+    <row r="160" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E160" s="16"/>
       <c r="I160" s="13"/>
-    </row>
-    <row r="161" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J160" s="13"/>
+    </row>
+    <row r="161" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E161" s="16"/>
       <c r="I161" s="13"/>
-    </row>
-    <row r="162" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J161" s="13"/>
+    </row>
+    <row r="162" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E162" s="16"/>
       <c r="I162" s="13"/>
-    </row>
-    <row r="163" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J162" s="13"/>
+    </row>
+    <row r="163" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E163" s="16"/>
       <c r="I163" s="13"/>
-    </row>
-    <row r="164" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J163" s="13"/>
+    </row>
+    <row r="164" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E164" s="16"/>
       <c r="I164" s="13"/>
-    </row>
-    <row r="165" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J164" s="13"/>
+    </row>
+    <row r="165" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E165" s="16"/>
       <c r="I165" s="13"/>
-    </row>
-    <row r="166" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J165" s="13"/>
+    </row>
+    <row r="166" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E166" s="16"/>
       <c r="I166" s="13"/>
-    </row>
-    <row r="167" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J166" s="13"/>
+    </row>
+    <row r="167" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E167" s="16"/>
       <c r="I167" s="13"/>
-    </row>
-    <row r="168" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J167" s="13"/>
+    </row>
+    <row r="168" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E168" s="16"/>
       <c r="I168" s="13"/>
-    </row>
-    <row r="169" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J168" s="13"/>
+    </row>
+    <row r="169" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E169" s="16"/>
       <c r="I169" s="13"/>
-    </row>
-    <row r="170" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J169" s="13"/>
+    </row>
+    <row r="170" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E170" s="16"/>
       <c r="I170" s="13"/>
-    </row>
-    <row r="171" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J170" s="13"/>
+    </row>
+    <row r="171" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E171" s="16"/>
       <c r="I171" s="13"/>
-    </row>
-    <row r="172" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J171" s="13"/>
+    </row>
+    <row r="172" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E172" s="16"/>
       <c r="I172" s="13"/>
-    </row>
-    <row r="173" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J172" s="13"/>
+    </row>
+    <row r="173" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E173" s="16"/>
       <c r="I173" s="13"/>
-    </row>
-    <row r="174" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J173" s="13"/>
+    </row>
+    <row r="174" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E174" s="16"/>
       <c r="I174" s="13"/>
-    </row>
-    <row r="175" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J174" s="13"/>
+    </row>
+    <row r="175" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E175" s="16"/>
       <c r="I175" s="13"/>
-    </row>
-    <row r="176" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J175" s="13"/>
+    </row>
+    <row r="176" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E176" s="16"/>
       <c r="I176" s="13"/>
-    </row>
-    <row r="177" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J176" s="13"/>
+    </row>
+    <row r="177" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E177" s="16"/>
       <c r="I177" s="13"/>
-    </row>
-    <row r="178" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J177" s="13"/>
+    </row>
+    <row r="178" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E178" s="16"/>
       <c r="I178" s="13"/>
-    </row>
-    <row r="179" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J178" s="13"/>
+    </row>
+    <row r="179" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E179" s="16"/>
       <c r="I179" s="13"/>
-    </row>
-    <row r="180" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J179" s="13"/>
+    </row>
+    <row r="180" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E180" s="16"/>
       <c r="I180" s="13"/>
-    </row>
-    <row r="181" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J180" s="13"/>
+    </row>
+    <row r="181" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E181" s="16"/>
       <c r="I181" s="13"/>
-    </row>
-    <row r="182" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J181" s="13"/>
+    </row>
+    <row r="182" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E182" s="16"/>
       <c r="I182" s="13"/>
-    </row>
-    <row r="183" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J182" s="13"/>
+    </row>
+    <row r="183" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E183" s="16"/>
       <c r="I183" s="13"/>
-    </row>
-    <row r="184" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J183" s="13"/>
+    </row>
+    <row r="184" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E184" s="16"/>
       <c r="I184" s="13"/>
-    </row>
-    <row r="185" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J184" s="13"/>
+    </row>
+    <row r="185" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E185" s="16"/>
       <c r="I185" s="13"/>
-    </row>
-    <row r="186" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J185" s="13"/>
+    </row>
+    <row r="186" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E186" s="16"/>
       <c r="I186" s="13"/>
-    </row>
-    <row r="187" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J186" s="13"/>
+    </row>
+    <row r="187" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E187" s="16"/>
       <c r="I187" s="13"/>
-    </row>
-    <row r="188" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J187" s="13"/>
+    </row>
+    <row r="188" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E188" s="16"/>
       <c r="I188" s="13"/>
-    </row>
-    <row r="189" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J188" s="13"/>
+    </row>
+    <row r="189" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E189" s="16"/>
       <c r="I189" s="13"/>
-    </row>
-    <row r="190" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J189" s="13"/>
+    </row>
+    <row r="190" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E190" s="16"/>
       <c r="I190" s="13"/>
-    </row>
-    <row r="191" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J190" s="13"/>
+    </row>
+    <row r="191" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E191" s="16"/>
       <c r="I191" s="13"/>
-    </row>
-    <row r="192" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J191" s="13"/>
+    </row>
+    <row r="192" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E192" s="16"/>
       <c r="I192" s="13"/>
-    </row>
-    <row r="193" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J192" s="13"/>
+    </row>
+    <row r="193" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E193" s="16"/>
       <c r="I193" s="13"/>
-    </row>
-    <row r="194" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J193" s="13"/>
+    </row>
+    <row r="194" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E194" s="16"/>
       <c r="I194" s="13"/>
-    </row>
-    <row r="195" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J194" s="13"/>
+    </row>
+    <row r="195" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E195" s="16"/>
       <c r="I195" s="13"/>
-    </row>
-    <row r="196" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J195" s="13"/>
+    </row>
+    <row r="196" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E196" s="16"/>
       <c r="I196" s="13"/>
-    </row>
-    <row r="197" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J196" s="13"/>
+    </row>
+    <row r="197" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E197" s="16"/>
       <c r="I197" s="13"/>
-    </row>
-    <row r="198" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J197" s="13"/>
+    </row>
+    <row r="198" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E198" s="16"/>
       <c r="I198" s="13"/>
-    </row>
-    <row r="199" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J198" s="13"/>
+    </row>
+    <row r="199" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E199" s="16"/>
       <c r="I199" s="13"/>
-    </row>
-    <row r="200" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J199" s="13"/>
+    </row>
+    <row r="200" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E200" s="16"/>
       <c r="I200" s="13"/>
-    </row>
-    <row r="201" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J200" s="13"/>
+    </row>
+    <row r="201" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E201" s="16"/>
       <c r="I201" s="13"/>
-    </row>
-    <row r="202" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J201" s="13"/>
+    </row>
+    <row r="202" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E202" s="16"/>
       <c r="I202" s="13"/>
-    </row>
-    <row r="203" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J202" s="13"/>
+    </row>
+    <row r="203" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E203" s="16"/>
       <c r="I203" s="13"/>
-    </row>
-    <row r="204" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J203" s="13"/>
+    </row>
+    <row r="204" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E204" s="16"/>
       <c r="I204" s="13"/>
-    </row>
-    <row r="205" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J204" s="13"/>
+    </row>
+    <row r="205" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E205" s="16"/>
       <c r="I205" s="13"/>
-    </row>
-    <row r="206" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J205" s="13"/>
+    </row>
+    <row r="206" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E206" s="16"/>
       <c r="I206" s="13"/>
-    </row>
-    <row r="207" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J206" s="13"/>
+    </row>
+    <row r="207" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E207" s="16"/>
       <c r="I207" s="13"/>
-    </row>
-    <row r="208" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J207" s="13"/>
+    </row>
+    <row r="208" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E208" s="16"/>
       <c r="I208" s="13"/>
-    </row>
-    <row r="209" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J208" s="13"/>
+    </row>
+    <row r="209" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E209" s="16"/>
       <c r="I209" s="13"/>
-    </row>
-    <row r="210" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J209" s="13"/>
+    </row>
+    <row r="210" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E210" s="16"/>
       <c r="I210" s="13"/>
-    </row>
-    <row r="211" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J210" s="13"/>
+    </row>
+    <row r="211" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E211" s="16"/>
       <c r="I211" s="13"/>
-    </row>
-    <row r="212" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J211" s="13"/>
+    </row>
+    <row r="212" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E212" s="16"/>
       <c r="I212" s="13"/>
-    </row>
-    <row r="213" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J212" s="13"/>
+    </row>
+    <row r="213" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E213" s="16"/>
       <c r="I213" s="13"/>
-    </row>
-    <row r="214" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J213" s="13"/>
+    </row>
+    <row r="214" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E214" s="16"/>
       <c r="I214" s="13"/>
-    </row>
-    <row r="215" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J214" s="13"/>
+    </row>
+    <row r="215" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E215" s="16"/>
       <c r="I215" s="13"/>
-    </row>
-    <row r="216" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J215" s="13"/>
+    </row>
+    <row r="216" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E216" s="16"/>
       <c r="I216" s="13"/>
-    </row>
-    <row r="217" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J216" s="13"/>
+    </row>
+    <row r="217" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E217" s="16"/>
       <c r="I217" s="13"/>
-    </row>
-    <row r="218" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J217" s="13"/>
+    </row>
+    <row r="218" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E218" s="16"/>
       <c r="I218" s="13"/>
-    </row>
-    <row r="219" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J218" s="13"/>
+    </row>
+    <row r="219" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E219" s="16"/>
       <c r="I219" s="13"/>
-    </row>
-    <row r="220" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J219" s="13"/>
+    </row>
+    <row r="220" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E220" s="16"/>
       <c r="I220" s="13"/>
-    </row>
-    <row r="221" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J220" s="13"/>
+    </row>
+    <row r="221" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E221" s="16"/>
       <c r="I221" s="13"/>
-    </row>
-    <row r="222" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J221" s="13"/>
+    </row>
+    <row r="222" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E222" s="16"/>
       <c r="I222" s="13"/>
-    </row>
-    <row r="223" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J222" s="13"/>
+    </row>
+    <row r="223" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E223" s="16"/>
       <c r="I223" s="13"/>
-    </row>
-    <row r="224" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J223" s="13"/>
+    </row>
+    <row r="224" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E224" s="16"/>
       <c r="I224" s="13"/>
-    </row>
-    <row r="225" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J224" s="13"/>
+    </row>
+    <row r="225" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E225" s="16"/>
       <c r="I225" s="13"/>
-    </row>
-    <row r="226" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J225" s="13"/>
+    </row>
+    <row r="226" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E226" s="16"/>
       <c r="I226" s="13"/>
-    </row>
-    <row r="227" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J226" s="13"/>
+    </row>
+    <row r="227" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E227" s="16"/>
       <c r="I227" s="13"/>
-    </row>
-    <row r="228" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J227" s="13"/>
+    </row>
+    <row r="228" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E228" s="16"/>
       <c r="I228" s="13"/>
-    </row>
-    <row r="229" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J228" s="13"/>
+    </row>
+    <row r="229" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E229" s="16"/>
       <c r="I229" s="13"/>
-    </row>
-    <row r="230" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J229" s="13"/>
+    </row>
+    <row r="230" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E230" s="16"/>
       <c r="I230" s="13"/>
-    </row>
-    <row r="231" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J230" s="13"/>
+    </row>
+    <row r="231" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E231" s="16"/>
       <c r="I231" s="13"/>
-    </row>
-    <row r="232" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J231" s="13"/>
+    </row>
+    <row r="232" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E232" s="16"/>
       <c r="I232" s="13"/>
-    </row>
-    <row r="233" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J232" s="13"/>
+    </row>
+    <row r="233" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E233" s="16"/>
       <c r="I233" s="13"/>
-    </row>
-    <row r="234" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J233" s="13"/>
+    </row>
+    <row r="234" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E234" s="16"/>
       <c r="I234" s="13"/>
-    </row>
-    <row r="235" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J234" s="13"/>
+    </row>
+    <row r="235" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E235" s="16"/>
       <c r="I235" s="13"/>
-    </row>
-    <row r="236" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J235" s="13"/>
+    </row>
+    <row r="236" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E236" s="16"/>
       <c r="I236" s="13"/>
-    </row>
-    <row r="237" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J236" s="13"/>
+    </row>
+    <row r="237" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E237" s="16"/>
       <c r="I237" s="13"/>
-    </row>
-    <row r="238" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J237" s="13"/>
+    </row>
+    <row r="238" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E238" s="16"/>
       <c r="I238" s="13"/>
-    </row>
-    <row r="239" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J238" s="13"/>
+    </row>
+    <row r="239" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E239" s="16"/>
       <c r="I239" s="13"/>
-    </row>
-    <row r="240" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J239" s="13"/>
+    </row>
+    <row r="240" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E240" s="16"/>
       <c r="I240" s="13"/>
-    </row>
-    <row r="241" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J240" s="13"/>
+    </row>
+    <row r="241" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E241" s="16"/>
       <c r="I241" s="13"/>
-    </row>
-    <row r="242" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J241" s="13"/>
+    </row>
+    <row r="242" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E242" s="16"/>
       <c r="I242" s="13"/>
-    </row>
-    <row r="243" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J242" s="13"/>
+    </row>
+    <row r="243" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E243" s="16"/>
       <c r="I243" s="13"/>
-    </row>
-    <row r="244" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J243" s="13"/>
+    </row>
+    <row r="244" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E244" s="16"/>
       <c r="I244" s="13"/>
-    </row>
-    <row r="245" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J244" s="13"/>
+    </row>
+    <row r="245" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E245" s="16"/>
       <c r="I245" s="13"/>
-    </row>
-    <row r="246" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J245" s="13"/>
+    </row>
+    <row r="246" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E246" s="16"/>
       <c r="I246" s="13"/>
-    </row>
-    <row r="247" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J246" s="13"/>
+    </row>
+    <row r="247" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E247" s="16"/>
       <c r="I247" s="13"/>
-    </row>
-    <row r="248" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J247" s="13"/>
+    </row>
+    <row r="248" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E248" s="16"/>
       <c r="I248" s="13"/>
-    </row>
-    <row r="249" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J248" s="13"/>
+    </row>
+    <row r="249" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E249" s="16"/>
       <c r="I249" s="13"/>
-    </row>
-    <row r="250" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J249" s="13"/>
+    </row>
+    <row r="250" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E250" s="16"/>
       <c r="I250" s="13"/>
-    </row>
-    <row r="251" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J250" s="13"/>
+    </row>
+    <row r="251" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E251" s="16"/>
       <c r="I251" s="13"/>
-    </row>
-    <row r="252" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J251" s="13"/>
+    </row>
+    <row r="252" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E252" s="16"/>
       <c r="I252" s="13"/>
-    </row>
-    <row r="253" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J252" s="13"/>
+    </row>
+    <row r="253" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E253" s="16"/>
       <c r="I253" s="13"/>
-    </row>
-    <row r="254" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J253" s="13"/>
+    </row>
+    <row r="254" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E254" s="16"/>
       <c r="I254" s="13"/>
-    </row>
-    <row r="255" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J254" s="13"/>
+    </row>
+    <row r="255" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E255" s="16"/>
       <c r="I255" s="13"/>
-    </row>
-    <row r="256" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J255" s="13"/>
+    </row>
+    <row r="256" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E256" s="16"/>
       <c r="I256" s="13"/>
-    </row>
-    <row r="257" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J256" s="13"/>
+    </row>
+    <row r="257" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E257" s="16"/>
       <c r="I257" s="13"/>
-    </row>
-    <row r="258" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J257" s="13"/>
+    </row>
+    <row r="258" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E258" s="16"/>
       <c r="I258" s="13"/>
-    </row>
-    <row r="259" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J258" s="13"/>
+    </row>
+    <row r="259" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E259" s="16"/>
       <c r="I259" s="13"/>
-    </row>
-    <row r="260" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J259" s="13"/>
+    </row>
+    <row r="260" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E260" s="16"/>
       <c r="I260" s="13"/>
-    </row>
-    <row r="261" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J260" s="13"/>
+    </row>
+    <row r="261" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E261" s="16"/>
       <c r="I261" s="13"/>
-    </row>
-    <row r="262" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J261" s="13"/>
+    </row>
+    <row r="262" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E262" s="16"/>
       <c r="I262" s="13"/>
-    </row>
-    <row r="263" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J262" s="13"/>
+    </row>
+    <row r="263" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E263" s="16"/>
       <c r="I263" s="13"/>
-    </row>
-    <row r="264" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J263" s="13"/>
+    </row>
+    <row r="264" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E264" s="16"/>
       <c r="I264" s="13"/>
-    </row>
-    <row r="265" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J264" s="13"/>
+    </row>
+    <row r="265" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E265" s="16"/>
       <c r="I265" s="13"/>
-    </row>
-    <row r="266" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J265" s="13"/>
+    </row>
+    <row r="266" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E266" s="16"/>
       <c r="I266" s="13"/>
-    </row>
-    <row r="267" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J266" s="13"/>
+    </row>
+    <row r="267" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E267" s="16"/>
       <c r="I267" s="13"/>
-    </row>
-    <row r="268" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J267" s="13"/>
+    </row>
+    <row r="268" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E268" s="16"/>
       <c r="I268" s="13"/>
-    </row>
-    <row r="269" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J268" s="13"/>
+    </row>
+    <row r="269" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E269" s="16"/>
       <c r="I269" s="13"/>
-    </row>
-    <row r="270" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J269" s="13"/>
+    </row>
+    <row r="270" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E270" s="16"/>
       <c r="I270" s="13"/>
-    </row>
-    <row r="271" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J270" s="13"/>
+    </row>
+    <row r="271" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E271" s="16"/>
       <c r="I271" s="13"/>
-    </row>
-    <row r="272" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J271" s="13"/>
+    </row>
+    <row r="272" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E272" s="16"/>
       <c r="I272" s="13"/>
-    </row>
-    <row r="273" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J272" s="13"/>
+    </row>
+    <row r="273" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E273" s="16"/>
       <c r="I273" s="13"/>
-    </row>
-    <row r="274" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J273" s="13"/>
+    </row>
+    <row r="274" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E274" s="16"/>
       <c r="I274" s="13"/>
-    </row>
-    <row r="275" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J274" s="13"/>
+    </row>
+    <row r="275" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E275" s="16"/>
       <c r="I275" s="13"/>
-    </row>
-    <row r="276" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J275" s="13"/>
+    </row>
+    <row r="276" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E276" s="16"/>
       <c r="I276" s="13"/>
-    </row>
-    <row r="277" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J276" s="13"/>
+    </row>
+    <row r="277" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E277" s="16"/>
       <c r="I277" s="13"/>
-    </row>
-    <row r="278" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J277" s="13"/>
+    </row>
+    <row r="278" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E278" s="16"/>
       <c r="I278" s="13"/>
-    </row>
-    <row r="279" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J278" s="13"/>
+    </row>
+    <row r="279" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E279" s="16"/>
       <c r="I279" s="13"/>
-    </row>
-    <row r="280" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J279" s="13"/>
+    </row>
+    <row r="280" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E280" s="16"/>
       <c r="I280" s="13"/>
-    </row>
-    <row r="281" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J280" s="13"/>
+    </row>
+    <row r="281" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E281" s="16"/>
       <c r="I281" s="13"/>
-    </row>
-    <row r="282" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J281" s="13"/>
+    </row>
+    <row r="282" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E282" s="16"/>
       <c r="I282" s="13"/>
-    </row>
-    <row r="283" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J282" s="13"/>
+    </row>
+    <row r="283" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E283" s="16"/>
       <c r="I283" s="13"/>
-    </row>
-    <row r="284" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J283" s="13"/>
+    </row>
+    <row r="284" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E284" s="16"/>
       <c r="I284" s="13"/>
-    </row>
-    <row r="285" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J284" s="13"/>
+    </row>
+    <row r="285" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E285" s="16"/>
       <c r="I285" s="13"/>
-    </row>
-    <row r="286" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J285" s="13"/>
+    </row>
+    <row r="286" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E286" s="16"/>
       <c r="I286" s="13"/>
-    </row>
-    <row r="287" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J286" s="13"/>
+    </row>
+    <row r="287" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E287" s="16"/>
       <c r="I287" s="13"/>
-    </row>
-    <row r="288" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J287" s="13"/>
+    </row>
+    <row r="288" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E288" s="16"/>
       <c r="I288" s="13"/>
-    </row>
-    <row r="289" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J288" s="13"/>
+    </row>
+    <row r="289" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E289" s="16"/>
       <c r="I289" s="13"/>
-    </row>
-    <row r="290" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J289" s="13"/>
+    </row>
+    <row r="290" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E290" s="16"/>
       <c r="I290" s="13"/>
-    </row>
-    <row r="291" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J290" s="13"/>
+    </row>
+    <row r="291" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E291" s="16"/>
       <c r="I291" s="13"/>
-    </row>
-    <row r="292" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J291" s="13"/>
+    </row>
+    <row r="292" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E292" s="16"/>
       <c r="I292" s="13"/>
-    </row>
-    <row r="293" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J292" s="13"/>
+    </row>
+    <row r="293" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E293" s="16"/>
       <c r="I293" s="13"/>
-    </row>
-    <row r="294" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J293" s="13"/>
+    </row>
+    <row r="294" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E294" s="16"/>
       <c r="I294" s="13"/>
-    </row>
-    <row r="295" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J294" s="13"/>
+    </row>
+    <row r="295" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E295" s="16"/>
       <c r="I295" s="13"/>
-    </row>
-    <row r="296" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J295" s="13"/>
+    </row>
+    <row r="296" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E296" s="16"/>
       <c r="I296" s="13"/>
-    </row>
-    <row r="297" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J296" s="13"/>
+    </row>
+    <row r="297" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E297" s="16"/>
       <c r="I297" s="13"/>
-    </row>
-    <row r="298" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J297" s="13"/>
+    </row>
+    <row r="298" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E298" s="16"/>
       <c r="I298" s="13"/>
-    </row>
-    <row r="299" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J298" s="13"/>
+    </row>
+    <row r="299" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E299" s="16"/>
       <c r="I299" s="13"/>
-    </row>
-    <row r="300" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J299" s="13"/>
+    </row>
+    <row r="300" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E300" s="16"/>
       <c r="I300" s="13"/>
-    </row>
-    <row r="301" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J300" s="13"/>
+    </row>
+    <row r="301" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E301" s="16"/>
       <c r="I301" s="13"/>
-    </row>
-    <row r="302" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J301" s="13"/>
+    </row>
+    <row r="302" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E302" s="16"/>
       <c r="I302" s="13"/>
-    </row>
-    <row r="303" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J302" s="13"/>
+    </row>
+    <row r="303" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E303" s="16"/>
       <c r="I303" s="13"/>
-    </row>
-    <row r="304" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J303" s="13"/>
+    </row>
+    <row r="304" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E304" s="16"/>
       <c r="I304" s="13"/>
-    </row>
-    <row r="305" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J304" s="13"/>
+    </row>
+    <row r="305" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E305" s="16"/>
       <c r="I305" s="13"/>
-    </row>
-    <row r="306" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J305" s="13"/>
+    </row>
+    <row r="306" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E306" s="16"/>
       <c r="I306" s="13"/>
-    </row>
-    <row r="307" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J306" s="13"/>
+    </row>
+    <row r="307" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E307" s="16"/>
       <c r="I307" s="13"/>
-    </row>
-    <row r="308" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J307" s="13"/>
+    </row>
+    <row r="308" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E308" s="16"/>
       <c r="I308" s="13"/>
-    </row>
-    <row r="309" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J308" s="13"/>
+    </row>
+    <row r="309" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E309" s="16"/>
       <c r="I309" s="13"/>
-    </row>
-    <row r="310" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J309" s="13"/>
+    </row>
+    <row r="310" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E310" s="16"/>
       <c r="I310" s="13"/>
-    </row>
-    <row r="311" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J310" s="13"/>
+    </row>
+    <row r="311" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E311" s="16"/>
       <c r="I311" s="13"/>
-    </row>
-    <row r="312" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J311" s="13"/>
+    </row>
+    <row r="312" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E312" s="16"/>
       <c r="I312" s="13"/>
-    </row>
-    <row r="313" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J312" s="13"/>
+    </row>
+    <row r="313" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E313" s="16"/>
       <c r="I313" s="13"/>
-    </row>
-    <row r="314" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J313" s="13"/>
+    </row>
+    <row r="314" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E314" s="16"/>
       <c r="I314" s="13"/>
-    </row>
-    <row r="315" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J314" s="13"/>
+    </row>
+    <row r="315" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E315" s="16"/>
       <c r="I315" s="13"/>
-    </row>
-    <row r="316" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J315" s="13"/>
+    </row>
+    <row r="316" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E316" s="16"/>
       <c r="I316" s="13"/>
-    </row>
-    <row r="317" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J316" s="13"/>
+    </row>
+    <row r="317" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E317" s="16"/>
       <c r="I317" s="13"/>
-    </row>
-    <row r="318" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J317" s="13"/>
+    </row>
+    <row r="318" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E318" s="16"/>
       <c r="I318" s="13"/>
-    </row>
-    <row r="319" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J318" s="13"/>
+    </row>
+    <row r="319" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E319" s="16"/>
       <c r="I319" s="13"/>
-    </row>
-    <row r="320" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J319" s="13"/>
+    </row>
+    <row r="320" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E320" s="16"/>
       <c r="I320" s="13"/>
-    </row>
-    <row r="321" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J320" s="13"/>
+    </row>
+    <row r="321" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E321" s="16"/>
       <c r="I321" s="13"/>
-    </row>
-    <row r="322" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J321" s="13"/>
+    </row>
+    <row r="322" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E322" s="16"/>
       <c r="I322" s="13"/>
-    </row>
-    <row r="323" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J322" s="13"/>
+    </row>
+    <row r="323" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E323" s="16"/>
       <c r="I323" s="13"/>
-    </row>
-    <row r="324" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J323" s="13"/>
+    </row>
+    <row r="324" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E324" s="16"/>
       <c r="I324" s="13"/>
-    </row>
-    <row r="325" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J324" s="13"/>
+    </row>
+    <row r="325" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E325" s="16"/>
       <c r="I325" s="13"/>
-    </row>
-    <row r="326" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J325" s="13"/>
+    </row>
+    <row r="326" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E326" s="16"/>
       <c r="I326" s="13"/>
-    </row>
-    <row r="327" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J326" s="13"/>
+    </row>
+    <row r="327" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E327" s="16"/>
       <c r="I327" s="13"/>
-    </row>
-    <row r="328" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J327" s="13"/>
+    </row>
+    <row r="328" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E328" s="16"/>
       <c r="I328" s="13"/>
-    </row>
-    <row r="329" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J328" s="13"/>
+    </row>
+    <row r="329" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E329" s="16"/>
       <c r="I329" s="13"/>
-    </row>
-    <row r="330" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J329" s="13"/>
+    </row>
+    <row r="330" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E330" s="16"/>
       <c r="I330" s="13"/>
-    </row>
-    <row r="331" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J330" s="13"/>
+    </row>
+    <row r="331" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E331" s="16"/>
       <c r="I331" s="13"/>
-    </row>
-    <row r="332" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J331" s="13"/>
+    </row>
+    <row r="332" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E332" s="16"/>
       <c r="I332" s="13"/>
-    </row>
-    <row r="333" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J332" s="13"/>
+    </row>
+    <row r="333" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E333" s="16"/>
       <c r="I333" s="13"/>
-    </row>
-    <row r="334" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J333" s="13"/>
+    </row>
+    <row r="334" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E334" s="16"/>
       <c r="I334" s="13"/>
-    </row>
-    <row r="335" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J334" s="13"/>
+    </row>
+    <row r="335" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E335" s="16"/>
       <c r="I335" s="13"/>
-    </row>
-    <row r="336" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J335" s="13"/>
+    </row>
+    <row r="336" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E336" s="16"/>
       <c r="I336" s="13"/>
-    </row>
-    <row r="337" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J336" s="13"/>
+    </row>
+    <row r="337" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E337" s="16"/>
       <c r="I337" s="13"/>
-    </row>
-    <row r="338" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J337" s="13"/>
+    </row>
+    <row r="338" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E338" s="16"/>
       <c r="I338" s="13"/>
-    </row>
-    <row r="339" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J338" s="13"/>
+    </row>
+    <row r="339" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E339" s="16"/>
       <c r="I339" s="13"/>
-    </row>
-    <row r="340" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J339" s="13"/>
+    </row>
+    <row r="340" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E340" s="16"/>
       <c r="I340" s="13"/>
-    </row>
-    <row r="341" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J340" s="13"/>
+    </row>
+    <row r="341" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E341" s="16"/>
       <c r="I341" s="13"/>
-    </row>
-    <row r="342" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J341" s="13"/>
+    </row>
+    <row r="342" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E342" s="16"/>
       <c r="I342" s="13"/>
-    </row>
-    <row r="343" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J342" s="13"/>
+    </row>
+    <row r="343" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E343" s="16"/>
       <c r="I343" s="13"/>
-    </row>
-    <row r="344" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J343" s="13"/>
+    </row>
+    <row r="344" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E344" s="16"/>
       <c r="I344" s="13"/>
-    </row>
-    <row r="345" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J344" s="13"/>
+    </row>
+    <row r="345" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E345" s="16"/>
       <c r="I345" s="13"/>
-    </row>
-    <row r="346" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J345" s="13"/>
+    </row>
+    <row r="346" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E346" s="16"/>
       <c r="I346" s="13"/>
-    </row>
-    <row r="347" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J346" s="13"/>
+    </row>
+    <row r="347" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E347" s="16"/>
       <c r="I347" s="13"/>
-    </row>
-    <row r="348" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J347" s="13"/>
+    </row>
+    <row r="348" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E348" s="16"/>
       <c r="I348" s="13"/>
-    </row>
-    <row r="349" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J348" s="13"/>
+    </row>
+    <row r="349" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E349" s="16"/>
       <c r="I349" s="13"/>
-    </row>
-    <row r="350" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J349" s="13"/>
+    </row>
+    <row r="350" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E350" s="16"/>
       <c r="I350" s="13"/>
-    </row>
-    <row r="351" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J350" s="13"/>
+    </row>
+    <row r="351" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E351" s="16"/>
       <c r="I351" s="13"/>
-    </row>
-    <row r="352" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J351" s="13"/>
+    </row>
+    <row r="352" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E352" s="16"/>
       <c r="I352" s="13"/>
-    </row>
-    <row r="353" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J352" s="13"/>
+    </row>
+    <row r="353" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E353" s="16"/>
       <c r="I353" s="13"/>
-    </row>
-    <row r="354" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J353" s="13"/>
+    </row>
+    <row r="354" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E354" s="16"/>
       <c r="I354" s="13"/>
-    </row>
-    <row r="355" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J354" s="13"/>
+    </row>
+    <row r="355" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E355" s="16"/>
       <c r="I355" s="13"/>
-    </row>
-    <row r="356" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J355" s="13"/>
+    </row>
+    <row r="356" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E356" s="16"/>
       <c r="I356" s="13"/>
-    </row>
-    <row r="357" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J356" s="13"/>
+    </row>
+    <row r="357" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E357" s="16"/>
       <c r="I357" s="13"/>
-    </row>
-    <row r="358" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J357" s="13"/>
+    </row>
+    <row r="358" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E358" s="16"/>
       <c r="I358" s="13"/>
-    </row>
-    <row r="359" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J358" s="13"/>
+    </row>
+    <row r="359" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E359" s="16"/>
       <c r="I359" s="13"/>
-    </row>
-    <row r="360" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J359" s="13"/>
+    </row>
+    <row r="360" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E360" s="16"/>
       <c r="I360" s="13"/>
-    </row>
-    <row r="361" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J360" s="13"/>
+    </row>
+    <row r="361" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E361" s="16"/>
       <c r="I361" s="13"/>
-    </row>
-    <row r="362" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J361" s="13"/>
+    </row>
+    <row r="362" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E362" s="16"/>
       <c r="I362" s="13"/>
-    </row>
-    <row r="363" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J362" s="13"/>
+    </row>
+    <row r="363" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E363" s="16"/>
       <c r="I363" s="13"/>
-    </row>
-    <row r="364" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J363" s="13"/>
+    </row>
+    <row r="364" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E364" s="16"/>
       <c r="I364" s="13"/>
-    </row>
-    <row r="365" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J364" s="13"/>
+    </row>
+    <row r="365" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E365" s="16"/>
       <c r="I365" s="13"/>
-    </row>
-    <row r="366" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J365" s="13"/>
+    </row>
+    <row r="366" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E366" s="16"/>
       <c r="I366" s="13"/>
-    </row>
-    <row r="367" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J366" s="13"/>
+    </row>
+    <row r="367" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E367" s="16"/>
       <c r="I367" s="13"/>
-    </row>
-    <row r="368" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J367" s="13"/>
+    </row>
+    <row r="368" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E368" s="16"/>
       <c r="I368" s="13"/>
-    </row>
-    <row r="369" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J368" s="13"/>
+    </row>
+    <row r="369" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E369" s="16"/>
       <c r="I369" s="13"/>
-    </row>
-    <row r="370" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J369" s="13"/>
+    </row>
+    <row r="370" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E370" s="16"/>
       <c r="I370" s="13"/>
-    </row>
-    <row r="371" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J370" s="13"/>
+    </row>
+    <row r="371" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E371" s="16"/>
       <c r="I371" s="13"/>
-    </row>
-    <row r="372" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J371" s="13"/>
+    </row>
+    <row r="372" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E372" s="16"/>
       <c r="I372" s="13"/>
-    </row>
-    <row r="373" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J372" s="13"/>
+    </row>
+    <row r="373" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E373" s="16"/>
       <c r="I373" s="13"/>
-    </row>
-    <row r="374" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J373" s="13"/>
+    </row>
+    <row r="374" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E374" s="16"/>
       <c r="I374" s="13"/>
-    </row>
-    <row r="375" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J374" s="13"/>
+    </row>
+    <row r="375" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E375" s="16"/>
       <c r="I375" s="13"/>
-    </row>
-    <row r="376" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J375" s="13"/>
+    </row>
+    <row r="376" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E376" s="16"/>
       <c r="I376" s="13"/>
-    </row>
-    <row r="377" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J376" s="13"/>
+    </row>
+    <row r="377" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E377" s="16"/>
       <c r="I377" s="13"/>
-    </row>
-    <row r="378" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J377" s="13"/>
+    </row>
+    <row r="378" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E378" s="16"/>
       <c r="I378" s="13"/>
-    </row>
-    <row r="379" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J378" s="13"/>
+    </row>
+    <row r="379" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E379" s="16"/>
       <c r="I379" s="13"/>
-    </row>
-    <row r="380" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J379" s="13"/>
+    </row>
+    <row r="380" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E380" s="16"/>
       <c r="I380" s="13"/>
-    </row>
-    <row r="381" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J380" s="13"/>
+    </row>
+    <row r="381" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E381" s="16"/>
       <c r="I381" s="13"/>
-    </row>
-    <row r="382" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J381" s="13"/>
+    </row>
+    <row r="382" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E382" s="16"/>
       <c r="I382" s="13"/>
-    </row>
-    <row r="383" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J382" s="13"/>
+    </row>
+    <row r="383" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E383" s="16"/>
       <c r="I383" s="13"/>
-    </row>
-    <row r="384" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J383" s="13"/>
+    </row>
+    <row r="384" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E384" s="16"/>
       <c r="I384" s="13"/>
-    </row>
-    <row r="385" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J384" s="13"/>
+    </row>
+    <row r="385" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E385" s="16"/>
       <c r="I385" s="13"/>
-    </row>
-    <row r="386" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J385" s="13"/>
+    </row>
+    <row r="386" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E386" s="16"/>
       <c r="I386" s="13"/>
-    </row>
-    <row r="387" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J386" s="13"/>
+    </row>
+    <row r="387" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E387" s="16"/>
       <c r="I387" s="13"/>
-    </row>
-    <row r="388" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J387" s="13"/>
+    </row>
+    <row r="388" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E388" s="16"/>
       <c r="I388" s="13"/>
-    </row>
-    <row r="389" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J388" s="13"/>
+    </row>
+    <row r="389" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E389" s="16"/>
       <c r="I389" s="13"/>
-    </row>
-    <row r="390" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J389" s="13"/>
+    </row>
+    <row r="390" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E390" s="16"/>
       <c r="I390" s="13"/>
-    </row>
-    <row r="391" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J390" s="13"/>
+    </row>
+    <row r="391" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E391" s="16"/>
       <c r="I391" s="13"/>
-    </row>
-    <row r="392" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J391" s="13"/>
+    </row>
+    <row r="392" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E392" s="16"/>
       <c r="I392" s="13"/>
-    </row>
-    <row r="393" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J392" s="13"/>
+    </row>
+    <row r="393" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E393" s="16"/>
       <c r="I393" s="13"/>
-    </row>
-    <row r="394" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J393" s="13"/>
+    </row>
+    <row r="394" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E394" s="16"/>
       <c r="I394" s="13"/>
-    </row>
-    <row r="395" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J394" s="13"/>
+    </row>
+    <row r="395" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E395" s="16"/>
       <c r="I395" s="13"/>
-    </row>
-    <row r="396" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J395" s="13"/>
+    </row>
+    <row r="396" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E396" s="16"/>
       <c r="I396" s="13"/>
-    </row>
-    <row r="397" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J396" s="13"/>
+    </row>
+    <row r="397" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E397" s="16"/>
       <c r="I397" s="13"/>
-    </row>
-    <row r="398" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J397" s="13"/>
+    </row>
+    <row r="398" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E398" s="16"/>
       <c r="I398" s="13"/>
-    </row>
-    <row r="399" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J398" s="13"/>
+    </row>
+    <row r="399" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E399" s="16"/>
       <c r="I399" s="13"/>
-    </row>
-    <row r="400" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J399" s="13"/>
+    </row>
+    <row r="400" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E400" s="16"/>
       <c r="I400" s="13"/>
-    </row>
-    <row r="401" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J400" s="13"/>
+    </row>
+    <row r="401" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E401" s="16"/>
       <c r="I401" s="13"/>
-    </row>
-    <row r="402" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J401" s="13"/>
+    </row>
+    <row r="402" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E402" s="16"/>
       <c r="I402" s="13"/>
-    </row>
-    <row r="403" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J402" s="13"/>
+    </row>
+    <row r="403" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E403" s="16"/>
       <c r="I403" s="13"/>
-    </row>
-    <row r="404" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J403" s="13"/>
+    </row>
+    <row r="404" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E404" s="16"/>
       <c r="I404" s="13"/>
-    </row>
-    <row r="405" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J404" s="13"/>
+    </row>
+    <row r="405" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E405" s="16"/>
       <c r="I405" s="13"/>
-    </row>
-    <row r="406" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J405" s="13"/>
+    </row>
+    <row r="406" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E406" s="16"/>
       <c r="I406" s="13"/>
-    </row>
-    <row r="407" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J406" s="13"/>
+    </row>
+    <row r="407" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E407" s="16"/>
       <c r="I407" s="13"/>
-    </row>
-    <row r="408" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J407" s="13"/>
+    </row>
+    <row r="408" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E408" s="16"/>
       <c r="I408" s="13"/>
-    </row>
-    <row r="409" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J408" s="13"/>
+    </row>
+    <row r="409" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E409" s="16"/>
       <c r="I409" s="13"/>
-    </row>
-    <row r="410" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J409" s="13"/>
+    </row>
+    <row r="410" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E410" s="16"/>
       <c r="I410" s="13"/>
-    </row>
-    <row r="411" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J410" s="13"/>
+    </row>
+    <row r="411" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E411" s="16"/>
       <c r="I411" s="13"/>
-    </row>
-    <row r="412" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J411" s="13"/>
+    </row>
+    <row r="412" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E412" s="16"/>
       <c r="I412" s="13"/>
-    </row>
-    <row r="413" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J412" s="13"/>
+    </row>
+    <row r="413" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E413" s="16"/>
       <c r="I413" s="13"/>
-    </row>
-    <row r="414" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J413" s="13"/>
+    </row>
+    <row r="414" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E414" s="16"/>
       <c r="I414" s="13"/>
-    </row>
-    <row r="415" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J414" s="13"/>
+    </row>
+    <row r="415" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E415" s="16"/>
       <c r="I415" s="13"/>
-    </row>
-    <row r="416" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J415" s="13"/>
+    </row>
+    <row r="416" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E416" s="16"/>
       <c r="I416" s="13"/>
-    </row>
-    <row r="417" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J416" s="13"/>
+    </row>
+    <row r="417" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E417" s="16"/>
       <c r="I417" s="13"/>
-    </row>
-    <row r="418" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J417" s="13"/>
+    </row>
+    <row r="418" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E418" s="16"/>
       <c r="I418" s="13"/>
-    </row>
-    <row r="419" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J418" s="13"/>
+    </row>
+    <row r="419" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E419" s="16"/>
       <c r="I419" s="13"/>
-    </row>
-    <row r="420" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J419" s="13"/>
+    </row>
+    <row r="420" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E420" s="16"/>
       <c r="I420" s="13"/>
-    </row>
-    <row r="421" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J420" s="13"/>
+    </row>
+    <row r="421" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E421" s="16"/>
       <c r="I421" s="13"/>
-    </row>
-    <row r="422" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J421" s="13"/>
+    </row>
+    <row r="422" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E422" s="16"/>
       <c r="I422" s="13"/>
-    </row>
-    <row r="423" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J422" s="13"/>
+    </row>
+    <row r="423" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E423" s="16"/>
       <c r="I423" s="13"/>
-    </row>
-    <row r="424" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J423" s="13"/>
+    </row>
+    <row r="424" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E424" s="16"/>
       <c r="I424" s="13"/>
-    </row>
-    <row r="425" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J424" s="13"/>
+    </row>
+    <row r="425" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E425" s="16"/>
       <c r="I425" s="13"/>
-    </row>
-    <row r="426" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J425" s="13"/>
+    </row>
+    <row r="426" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E426" s="16"/>
       <c r="I426" s="13"/>
-    </row>
-    <row r="427" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J426" s="13"/>
+    </row>
+    <row r="427" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E427" s="16"/>
       <c r="I427" s="13"/>
-    </row>
-    <row r="428" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J427" s="13"/>
+    </row>
+    <row r="428" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E428" s="16"/>
       <c r="I428" s="13"/>
-    </row>
-    <row r="429" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J428" s="13"/>
+    </row>
+    <row r="429" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E429" s="16"/>
       <c r="I429" s="13"/>
-    </row>
-    <row r="430" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J429" s="13"/>
+    </row>
+    <row r="430" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E430" s="16"/>
       <c r="I430" s="13"/>
-    </row>
-    <row r="431" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J430" s="13"/>
+    </row>
+    <row r="431" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E431" s="16"/>
       <c r="I431" s="13"/>
-    </row>
-    <row r="432" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J431" s="13"/>
+    </row>
+    <row r="432" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E432" s="16"/>
       <c r="I432" s="13"/>
-    </row>
-    <row r="433" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J432" s="13"/>
+    </row>
+    <row r="433" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E433" s="16"/>
       <c r="I433" s="13"/>
-    </row>
-    <row r="434" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J433" s="13"/>
+    </row>
+    <row r="434" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E434" s="16"/>
       <c r="I434" s="13"/>
-    </row>
-    <row r="435" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J434" s="13"/>
+    </row>
+    <row r="435" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E435" s="16"/>
       <c r="I435" s="13"/>
-    </row>
-    <row r="436" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J435" s="13"/>
+    </row>
+    <row r="436" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E436" s="16"/>
       <c r="I436" s="13"/>
-    </row>
-    <row r="437" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J436" s="13"/>
+    </row>
+    <row r="437" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E437" s="16"/>
       <c r="I437" s="13"/>
-    </row>
-    <row r="438" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J437" s="13"/>
+    </row>
+    <row r="438" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E438" s="16"/>
       <c r="I438" s="13"/>
-    </row>
-    <row r="439" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J438" s="13"/>
+    </row>
+    <row r="439" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E439" s="16"/>
       <c r="I439" s="13"/>
-    </row>
-    <row r="440" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J439" s="13"/>
+    </row>
+    <row r="440" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E440" s="16"/>
       <c r="I440" s="13"/>
-    </row>
-    <row r="441" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J440" s="13"/>
+    </row>
+    <row r="441" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E441" s="16"/>
       <c r="I441" s="13"/>
-    </row>
-    <row r="442" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J441" s="13"/>
+    </row>
+    <row r="442" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E442" s="16"/>
       <c r="I442" s="13"/>
-    </row>
-    <row r="443" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J442" s="13"/>
+    </row>
+    <row r="443" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E443" s="16"/>
       <c r="I443" s="13"/>
-    </row>
-    <row r="444" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J443" s="13"/>
+    </row>
+    <row r="444" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E444" s="16"/>
       <c r="I444" s="13"/>
-    </row>
-    <row r="445" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J444" s="13"/>
+    </row>
+    <row r="445" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E445" s="16"/>
       <c r="I445" s="13"/>
-    </row>
-    <row r="446" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J445" s="13"/>
+    </row>
+    <row r="446" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E446" s="16"/>
       <c r="I446" s="13"/>
-    </row>
-    <row r="447" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J446" s="13"/>
+    </row>
+    <row r="447" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E447" s="16"/>
       <c r="I447" s="13"/>
-    </row>
-    <row r="448" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J447" s="13"/>
+    </row>
+    <row r="448" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E448" s="16"/>
       <c r="I448" s="13"/>
-    </row>
-    <row r="449" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J448" s="13"/>
+    </row>
+    <row r="449" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E449" s="16"/>
       <c r="I449" s="13"/>
-    </row>
-    <row r="450" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J449" s="13"/>
+    </row>
+    <row r="450" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E450" s="16"/>
       <c r="I450" s="13"/>
-    </row>
-    <row r="451" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J450" s="13"/>
+    </row>
+    <row r="451" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E451" s="16"/>
       <c r="I451" s="13"/>
-    </row>
-    <row r="452" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J451" s="13"/>
+    </row>
+    <row r="452" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E452" s="16"/>
       <c r="I452" s="13"/>
-    </row>
-    <row r="453" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J452" s="13"/>
+    </row>
+    <row r="453" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E453" s="16"/>
       <c r="I453" s="13"/>
-    </row>
-    <row r="454" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J453" s="13"/>
+    </row>
+    <row r="454" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E454" s="16"/>
       <c r="I454" s="13"/>
-    </row>
-    <row r="455" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J454" s="13"/>
+    </row>
+    <row r="455" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E455" s="16"/>
       <c r="I455" s="13"/>
-    </row>
-    <row r="456" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J455" s="13"/>
+    </row>
+    <row r="456" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E456" s="16"/>
       <c r="I456" s="13"/>
-    </row>
-    <row r="457" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J456" s="13"/>
+    </row>
+    <row r="457" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E457" s="16"/>
       <c r="I457" s="13"/>
-    </row>
-    <row r="458" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J457" s="13"/>
+    </row>
+    <row r="458" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E458" s="16"/>
       <c r="I458" s="13"/>
-    </row>
-    <row r="459" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J458" s="13"/>
+    </row>
+    <row r="459" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E459" s="16"/>
       <c r="I459" s="13"/>
-    </row>
-    <row r="460" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J459" s="13"/>
+    </row>
+    <row r="460" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E460" s="16"/>
       <c r="I460" s="13"/>
-    </row>
-    <row r="461" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J460" s="13"/>
+    </row>
+    <row r="461" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E461" s="16"/>
       <c r="I461" s="13"/>
-    </row>
-    <row r="462" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J461" s="13"/>
+    </row>
+    <row r="462" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E462" s="16"/>
       <c r="I462" s="13"/>
-    </row>
-    <row r="463" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J462" s="13"/>
+    </row>
+    <row r="463" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E463" s="16"/>
       <c r="I463" s="13"/>
-    </row>
-    <row r="464" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J463" s="13"/>
+    </row>
+    <row r="464" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E464" s="16"/>
       <c r="I464" s="13"/>
-    </row>
-    <row r="465" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J464" s="13"/>
+    </row>
+    <row r="465" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E465" s="16"/>
       <c r="I465" s="13"/>
-    </row>
-    <row r="466" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J465" s="13"/>
+    </row>
+    <row r="466" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E466" s="16"/>
       <c r="I466" s="13"/>
-    </row>
-    <row r="467" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J466" s="13"/>
+    </row>
+    <row r="467" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E467" s="16"/>
       <c r="I467" s="13"/>
-    </row>
-    <row r="468" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J467" s="13"/>
+    </row>
+    <row r="468" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E468" s="16"/>
       <c r="I468" s="13"/>
-    </row>
-    <row r="469" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J468" s="13"/>
+    </row>
+    <row r="469" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E469" s="16"/>
       <c r="I469" s="13"/>
-    </row>
-    <row r="470" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J469" s="13"/>
+    </row>
+    <row r="470" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E470" s="16"/>
       <c r="I470" s="13"/>
-    </row>
-    <row r="471" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J470" s="13"/>
+    </row>
+    <row r="471" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E471" s="16"/>
       <c r="I471" s="13"/>
-    </row>
-    <row r="472" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J471" s="13"/>
+    </row>
+    <row r="472" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E472" s="16"/>
       <c r="I472" s="13"/>
-    </row>
-    <row r="473" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J472" s="13"/>
+    </row>
+    <row r="473" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E473" s="16"/>
       <c r="I473" s="13"/>
-    </row>
-    <row r="474" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J473" s="13"/>
+    </row>
+    <row r="474" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E474" s="16"/>
       <c r="I474" s="13"/>
-    </row>
-    <row r="475" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J474" s="13"/>
+    </row>
+    <row r="475" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E475" s="16"/>
       <c r="I475" s="13"/>
-    </row>
-    <row r="476" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J475" s="13"/>
+    </row>
+    <row r="476" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E476" s="16"/>
       <c r="I476" s="13"/>
-    </row>
-    <row r="477" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J476" s="13"/>
+    </row>
+    <row r="477" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E477" s="16"/>
       <c r="I477" s="13"/>
-    </row>
-    <row r="478" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J477" s="13"/>
+    </row>
+    <row r="478" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E478" s="16"/>
       <c r="I478" s="13"/>
-    </row>
-    <row r="479" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J478" s="13"/>
+    </row>
+    <row r="479" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E479" s="16"/>
       <c r="I479" s="13"/>
-    </row>
-    <row r="480" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J479" s="13"/>
+    </row>
+    <row r="480" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E480" s="16"/>
       <c r="I480" s="13"/>
-    </row>
-    <row r="481" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J480" s="13"/>
+    </row>
+    <row r="481" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E481" s="16"/>
       <c r="I481" s="13"/>
-    </row>
-    <row r="482" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J481" s="13"/>
+    </row>
+    <row r="482" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E482" s="16"/>
       <c r="I482" s="13"/>
-    </row>
-    <row r="483" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J482" s="13"/>
+    </row>
+    <row r="483" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E483" s="16"/>
       <c r="I483" s="13"/>
-    </row>
-    <row r="484" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J483" s="13"/>
+    </row>
+    <row r="484" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E484" s="16"/>
       <c r="I484" s="13"/>
-    </row>
-    <row r="485" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J484" s="13"/>
+    </row>
+    <row r="485" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E485" s="16"/>
       <c r="I485" s="13"/>
-    </row>
-    <row r="486" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J485" s="13"/>
+    </row>
+    <row r="486" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E486" s="16"/>
       <c r="I486" s="13"/>
-    </row>
-    <row r="487" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J486" s="13"/>
+    </row>
+    <row r="487" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E487" s="16"/>
       <c r="I487" s="13"/>
-    </row>
-    <row r="488" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J487" s="13"/>
+    </row>
+    <row r="488" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E488" s="16"/>
       <c r="I488" s="13"/>
-    </row>
-    <row r="489" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J488" s="13"/>
+    </row>
+    <row r="489" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E489" s="16"/>
       <c r="I489" s="13"/>
-    </row>
-    <row r="490" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J489" s="13"/>
+    </row>
+    <row r="490" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E490" s="16"/>
       <c r="I490" s="13"/>
-    </row>
-    <row r="491" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J490" s="13"/>
+    </row>
+    <row r="491" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E491" s="16"/>
       <c r="I491" s="13"/>
-    </row>
-    <row r="492" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J491" s="13"/>
+    </row>
+    <row r="492" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E492" s="16"/>
       <c r="I492" s="13"/>
-    </row>
-    <row r="493" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J492" s="13"/>
+    </row>
+    <row r="493" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E493" s="16"/>
       <c r="I493" s="13"/>
-    </row>
-    <row r="494" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J493" s="13"/>
+    </row>
+    <row r="494" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E494" s="16"/>
       <c r="I494" s="13"/>
-    </row>
-    <row r="495" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J494" s="13"/>
+    </row>
+    <row r="495" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E495" s="16"/>
       <c r="I495" s="13"/>
-    </row>
-    <row r="496" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J495" s="13"/>
+    </row>
+    <row r="496" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E496" s="16"/>
       <c r="I496" s="13"/>
-    </row>
-    <row r="497" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J496" s="13"/>
+    </row>
+    <row r="497" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E497" s="16"/>
       <c r="I497" s="13"/>
-    </row>
-    <row r="498" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J497" s="13"/>
+    </row>
+    <row r="498" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E498" s="16"/>
       <c r="I498" s="13"/>
-    </row>
-    <row r="499" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J498" s="13"/>
+    </row>
+    <row r="499" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E499" s="16"/>
       <c r="I499" s="13"/>
-    </row>
-    <row r="500" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J499" s="13"/>
+    </row>
+    <row r="500" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E500" s="16"/>
       <c r="I500" s="13"/>
-    </row>
-    <row r="501" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J500" s="13"/>
+    </row>
+    <row r="501" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E501" s="16"/>
       <c r="I501" s="13"/>
-    </row>
-    <row r="502" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J501" s="13"/>
+    </row>
+    <row r="502" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E502" s="16"/>
       <c r="I502" s="13"/>
-    </row>
-    <row r="503" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J502" s="13"/>
+    </row>
+    <row r="503" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E503" s="16"/>
       <c r="I503" s="13"/>
-    </row>
-    <row r="504" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J503" s="13"/>
+    </row>
+    <row r="504" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E504" s="16"/>
       <c r="I504" s="13"/>
-    </row>
-    <row r="505" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J504" s="13"/>
+    </row>
+    <row r="505" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E505" s="16"/>
       <c r="I505" s="13"/>
-    </row>
-    <row r="506" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J505" s="13"/>
+    </row>
+    <row r="506" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E506" s="16"/>
       <c r="I506" s="13"/>
-    </row>
-    <row r="507" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J506" s="13"/>
+    </row>
+    <row r="507" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E507" s="16"/>
       <c r="I507" s="13"/>
-    </row>
-    <row r="508" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J507" s="13"/>
+    </row>
+    <row r="508" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E508" s="16"/>
       <c r="I508" s="13"/>
-    </row>
-    <row r="509" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J508" s="13"/>
+    </row>
+    <row r="509" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E509" s="16"/>
       <c r="I509" s="13"/>
-    </row>
-    <row r="510" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J509" s="13"/>
+    </row>
+    <row r="510" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E510" s="16"/>
       <c r="I510" s="13"/>
-    </row>
-    <row r="511" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J510" s="13"/>
+    </row>
+    <row r="511" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E511" s="16"/>
       <c r="I511" s="13"/>
-    </row>
-    <row r="512" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J511" s="13"/>
+    </row>
+    <row r="512" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E512" s="16"/>
       <c r="I512" s="13"/>
-    </row>
-    <row r="513" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J512" s="13"/>
+    </row>
+    <row r="513" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E513" s="16"/>
       <c r="I513" s="13"/>
-    </row>
-    <row r="514" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J513" s="13"/>
+    </row>
+    <row r="514" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E514" s="16"/>
       <c r="I514" s="13"/>
-    </row>
-    <row r="515" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J514" s="13"/>
+    </row>
+    <row r="515" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E515" s="16"/>
       <c r="I515" s="13"/>
-    </row>
-    <row r="516" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J515" s="13"/>
+    </row>
+    <row r="516" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E516" s="16"/>
       <c r="I516" s="13"/>
-    </row>
-    <row r="517" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J516" s="13"/>
+    </row>
+    <row r="517" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E517" s="16"/>
       <c r="I517" s="13"/>
-    </row>
-    <row r="518" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J517" s="13"/>
+    </row>
+    <row r="518" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E518" s="16"/>
       <c r="I518" s="13"/>
-    </row>
-    <row r="519" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J518" s="13"/>
+    </row>
+    <row r="519" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E519" s="16"/>
       <c r="I519" s="13"/>
-    </row>
-    <row r="520" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J519" s="13"/>
+    </row>
+    <row r="520" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E520" s="16"/>
       <c r="I520" s="13"/>
-    </row>
-    <row r="521" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J520" s="13"/>
+    </row>
+    <row r="521" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E521" s="16"/>
       <c r="I521" s="13"/>
-    </row>
-    <row r="522" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J521" s="13"/>
+    </row>
+    <row r="522" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E522" s="16"/>
       <c r="I522" s="13"/>
-    </row>
-    <row r="523" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J522" s="13"/>
+    </row>
+    <row r="523" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E523" s="16"/>
       <c r="I523" s="13"/>
-    </row>
-    <row r="524" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J523" s="13"/>
+    </row>
+    <row r="524" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E524" s="16"/>
       <c r="I524" s="13"/>
-    </row>
-    <row r="525" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J524" s="13"/>
+    </row>
+    <row r="525" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E525" s="16"/>
       <c r="I525" s="13"/>
-    </row>
-    <row r="526" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J525" s="13"/>
+    </row>
+    <row r="526" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E526" s="16"/>
       <c r="I526" s="13"/>
-    </row>
-    <row r="527" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J526" s="13"/>
+    </row>
+    <row r="527" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E527" s="16"/>
       <c r="I527" s="13"/>
-    </row>
-    <row r="528" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J527" s="13"/>
+    </row>
+    <row r="528" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E528" s="16"/>
       <c r="I528" s="13"/>
-    </row>
-    <row r="529" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J528" s="13"/>
+    </row>
+    <row r="529" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E529" s="16"/>
       <c r="I529" s="13"/>
-    </row>
-    <row r="530" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J529" s="13"/>
+    </row>
+    <row r="530" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E530" s="16"/>
       <c r="I530" s="13"/>
-    </row>
-    <row r="531" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J530" s="13"/>
+    </row>
+    <row r="531" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E531" s="16"/>
       <c r="I531" s="13"/>
-    </row>
-    <row r="532" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J531" s="13"/>
+    </row>
+    <row r="532" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E532" s="16"/>
       <c r="I532" s="13"/>
-    </row>
-    <row r="533" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J532" s="13"/>
+    </row>
+    <row r="533" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E533" s="16"/>
       <c r="I533" s="13"/>
-    </row>
-    <row r="534" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J533" s="13"/>
+    </row>
+    <row r="534" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E534" s="16"/>
       <c r="I534" s="13"/>
-    </row>
-    <row r="535" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J534" s="13"/>
+    </row>
+    <row r="535" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E535" s="16"/>
       <c r="I535" s="13"/>
-    </row>
-    <row r="536" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J535" s="13"/>
+    </row>
+    <row r="536" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E536" s="16"/>
       <c r="I536" s="13"/>
-    </row>
-    <row r="537" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J536" s="13"/>
+    </row>
+    <row r="537" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E537" s="16"/>
       <c r="I537" s="13"/>
-    </row>
-    <row r="538" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J537" s="13"/>
+    </row>
+    <row r="538" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E538" s="16"/>
       <c r="I538" s="13"/>
-    </row>
-    <row r="539" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J538" s="13"/>
+    </row>
+    <row r="539" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E539" s="16"/>
       <c r="I539" s="13"/>
-    </row>
-    <row r="540" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J539" s="13"/>
+    </row>
+    <row r="540" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E540" s="16"/>
       <c r="I540" s="13"/>
-    </row>
-    <row r="541" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J540" s="13"/>
+    </row>
+    <row r="541" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E541" s="16"/>
       <c r="I541" s="13"/>
-    </row>
-    <row r="542" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J541" s="13"/>
+    </row>
+    <row r="542" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E542" s="16"/>
       <c r="I542" s="13"/>
-    </row>
-    <row r="543" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J542" s="13"/>
+    </row>
+    <row r="543" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E543" s="16"/>
       <c r="I543" s="13"/>
-    </row>
-    <row r="544" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J543" s="13"/>
+    </row>
+    <row r="544" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E544" s="16"/>
       <c r="I544" s="13"/>
-    </row>
-    <row r="545" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J544" s="13"/>
+    </row>
+    <row r="545" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E545" s="16"/>
       <c r="I545" s="13"/>
-    </row>
-    <row r="546" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J545" s="13"/>
+    </row>
+    <row r="546" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E546" s="16"/>
       <c r="I546" s="13"/>
-    </row>
-    <row r="547" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J546" s="13"/>
+    </row>
+    <row r="547" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E547" s="16"/>
       <c r="I547" s="13"/>
-    </row>
-    <row r="548" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J547" s="13"/>
+    </row>
+    <row r="548" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E548" s="16"/>
       <c r="I548" s="13"/>
-    </row>
-    <row r="549" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J548" s="13"/>
+    </row>
+    <row r="549" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E549" s="16"/>
       <c r="I549" s="13"/>
-    </row>
-    <row r="550" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J549" s="13"/>
+    </row>
+    <row r="550" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E550" s="16"/>
       <c r="I550" s="13"/>
-    </row>
-    <row r="551" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J550" s="13"/>
+    </row>
+    <row r="551" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E551" s="16"/>
       <c r="I551" s="13"/>
-    </row>
-    <row r="552" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J551" s="13"/>
+    </row>
+    <row r="552" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E552" s="16"/>
       <c r="I552" s="13"/>
-    </row>
-    <row r="553" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J552" s="13"/>
+    </row>
+    <row r="553" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E553" s="16"/>
       <c r="I553" s="13"/>
-    </row>
-    <row r="554" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J553" s="13"/>
+    </row>
+    <row r="554" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E554" s="16"/>
       <c r="I554" s="13"/>
-    </row>
-    <row r="555" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J554" s="13"/>
+    </row>
+    <row r="555" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E555" s="16"/>
       <c r="I555" s="13"/>
-    </row>
-    <row r="556" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J555" s="13"/>
+    </row>
+    <row r="556" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E556" s="16"/>
       <c r="I556" s="13"/>
-    </row>
-    <row r="557" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J556" s="13"/>
+    </row>
+    <row r="557" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E557" s="16"/>
       <c r="I557" s="13"/>
-    </row>
-    <row r="558" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J557" s="13"/>
+    </row>
+    <row r="558" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E558" s="16"/>
       <c r="I558" s="13"/>
-    </row>
-    <row r="559" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J558" s="13"/>
+    </row>
+    <row r="559" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E559" s="16"/>
       <c r="I559" s="13"/>
-    </row>
-    <row r="560" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J559" s="13"/>
+    </row>
+    <row r="560" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E560" s="16"/>
       <c r="I560" s="13"/>
-    </row>
-    <row r="561" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J560" s="13"/>
+    </row>
+    <row r="561" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E561" s="16"/>
       <c r="I561" s="13"/>
-    </row>
-    <row r="562" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J561" s="13"/>
+    </row>
+    <row r="562" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E562" s="16"/>
       <c r="I562" s="13"/>
-    </row>
-    <row r="563" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J562" s="13"/>
+    </row>
+    <row r="563" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E563" s="16"/>
       <c r="I563" s="13"/>
-    </row>
-    <row r="564" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J563" s="13"/>
+    </row>
+    <row r="564" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E564" s="16"/>
       <c r="I564" s="13"/>
-    </row>
-    <row r="565" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J564" s="13"/>
+    </row>
+    <row r="565" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E565" s="16"/>
       <c r="I565" s="13"/>
-    </row>
-    <row r="566" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J565" s="13"/>
+    </row>
+    <row r="566" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E566" s="16"/>
       <c r="I566" s="13"/>
-    </row>
-    <row r="567" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J566" s="13"/>
+    </row>
+    <row r="567" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E567" s="16"/>
       <c r="I567" s="13"/>
-    </row>
-    <row r="568" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J567" s="13"/>
+    </row>
+    <row r="568" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E568" s="16"/>
       <c r="I568" s="13"/>
-    </row>
-    <row r="569" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J568" s="13"/>
+    </row>
+    <row r="569" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E569" s="16"/>
       <c r="I569" s="13"/>
-    </row>
-    <row r="570" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J569" s="13"/>
+    </row>
+    <row r="570" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E570" s="16"/>
       <c r="I570" s="13"/>
-    </row>
-    <row r="571" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J570" s="13"/>
+    </row>
+    <row r="571" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E571" s="16"/>
       <c r="I571" s="13"/>
-    </row>
-    <row r="572" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J571" s="13"/>
+    </row>
+    <row r="572" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E572" s="16"/>
       <c r="I572" s="13"/>
-    </row>
-    <row r="573" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J572" s="13"/>
+    </row>
+    <row r="573" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E573" s="16"/>
       <c r="I573" s="13"/>
-    </row>
-    <row r="574" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J573" s="13"/>
+    </row>
+    <row r="574" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E574" s="16"/>
       <c r="I574" s="13"/>
-    </row>
-    <row r="575" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J574" s="13"/>
+    </row>
+    <row r="575" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E575" s="16"/>
       <c r="I575" s="13"/>
-    </row>
-    <row r="576" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J575" s="13"/>
+    </row>
+    <row r="576" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E576" s="16"/>
       <c r="I576" s="13"/>
-    </row>
-    <row r="577" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J576" s="13"/>
+    </row>
+    <row r="577" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E577" s="16"/>
       <c r="I577" s="13"/>
-    </row>
-    <row r="578" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J577" s="13"/>
+    </row>
+    <row r="578" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E578" s="16"/>
       <c r="I578" s="13"/>
-    </row>
-    <row r="579" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J578" s="13"/>
+    </row>
+    <row r="579" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E579" s="16"/>
       <c r="I579" s="13"/>
-    </row>
-    <row r="580" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J579" s="13"/>
+    </row>
+    <row r="580" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E580" s="16"/>
       <c r="I580" s="13"/>
-    </row>
-    <row r="581" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J580" s="13"/>
+    </row>
+    <row r="581" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E581" s="16"/>
       <c r="I581" s="13"/>
-    </row>
-    <row r="582" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J581" s="13"/>
+    </row>
+    <row r="582" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E582" s="16"/>
       <c r="I582" s="13"/>
-    </row>
-    <row r="583" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J582" s="13"/>
+    </row>
+    <row r="583" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E583" s="16"/>
       <c r="I583" s="13"/>
-    </row>
-    <row r="584" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J583" s="13"/>
+    </row>
+    <row r="584" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E584" s="16"/>
       <c r="I584" s="13"/>
-    </row>
-    <row r="585" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J584" s="13"/>
+    </row>
+    <row r="585" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E585" s="16"/>
       <c r="I585" s="13"/>
-    </row>
-    <row r="586" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J585" s="13"/>
+    </row>
+    <row r="586" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E586" s="16"/>
       <c r="I586" s="13"/>
-    </row>
-    <row r="587" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J586" s="13"/>
+    </row>
+    <row r="587" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E587" s="16"/>
       <c r="I587" s="13"/>
-    </row>
-    <row r="588" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J587" s="13"/>
+    </row>
+    <row r="588" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E588" s="16"/>
       <c r="I588" s="13"/>
-    </row>
-    <row r="589" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J588" s="13"/>
+    </row>
+    <row r="589" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E589" s="16"/>
       <c r="I589" s="13"/>
-    </row>
-    <row r="590" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J589" s="13"/>
+    </row>
+    <row r="590" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E590" s="16"/>
       <c r="I590" s="13"/>
-    </row>
-    <row r="591" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J590" s="13"/>
+    </row>
+    <row r="591" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E591" s="16"/>
       <c r="I591" s="13"/>
-    </row>
-    <row r="592" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J591" s="13"/>
+    </row>
+    <row r="592" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E592" s="16"/>
       <c r="I592" s="13"/>
-    </row>
-    <row r="593" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J592" s="13"/>
+    </row>
+    <row r="593" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E593" s="16"/>
       <c r="I593" s="13"/>
-    </row>
-    <row r="594" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J593" s="13"/>
+    </row>
+    <row r="594" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E594" s="16"/>
       <c r="I594" s="13"/>
-    </row>
-    <row r="595" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J594" s="13"/>
+    </row>
+    <row r="595" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E595" s="16"/>
       <c r="I595" s="13"/>
-    </row>
-    <row r="596" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J595" s="13"/>
+    </row>
+    <row r="596" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E596" s="16"/>
       <c r="I596" s="13"/>
-    </row>
-    <row r="597" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J596" s="13"/>
+    </row>
+    <row r="597" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E597" s="16"/>
       <c r="I597" s="13"/>
-    </row>
-    <row r="598" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J597" s="13"/>
+    </row>
+    <row r="598" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E598" s="16"/>
       <c r="I598" s="13"/>
-    </row>
-    <row r="599" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J598" s="13"/>
+    </row>
+    <row r="599" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E599" s="16"/>
       <c r="I599" s="13"/>
-    </row>
-    <row r="600" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J599" s="13"/>
+    </row>
+    <row r="600" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E600" s="16"/>
       <c r="I600" s="13"/>
-    </row>
-    <row r="601" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J600" s="13"/>
+    </row>
+    <row r="601" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E601" s="16"/>
       <c r="I601" s="13"/>
-    </row>
-    <row r="602" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J601" s="13"/>
+    </row>
+    <row r="602" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E602" s="16"/>
       <c r="I602" s="13"/>
-    </row>
-    <row r="603" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J602" s="13"/>
+    </row>
+    <row r="603" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E603" s="16"/>
       <c r="I603" s="13"/>
-    </row>
-    <row r="604" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J603" s="13"/>
+    </row>
+    <row r="604" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E604" s="16"/>
       <c r="I604" s="13"/>
-    </row>
-    <row r="605" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J604" s="13"/>
+    </row>
+    <row r="605" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E605" s="16"/>
       <c r="I605" s="13"/>
-    </row>
-    <row r="606" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J605" s="13"/>
+    </row>
+    <row r="606" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E606" s="16"/>
       <c r="I606" s="13"/>
-    </row>
-    <row r="607" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J606" s="13"/>
+    </row>
+    <row r="607" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E607" s="16"/>
       <c r="I607" s="13"/>
-    </row>
-    <row r="608" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J607" s="13"/>
+    </row>
+    <row r="608" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E608" s="16"/>
       <c r="I608" s="13"/>
-    </row>
-    <row r="609" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J608" s="13"/>
+    </row>
+    <row r="609" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E609" s="16"/>
       <c r="I609" s="13"/>
-    </row>
-    <row r="610" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J609" s="13"/>
+    </row>
+    <row r="610" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E610" s="16"/>
       <c r="I610" s="13"/>
-    </row>
-    <row r="611" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J610" s="13"/>
+    </row>
+    <row r="611" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E611" s="16"/>
       <c r="I611" s="13"/>
-    </row>
-    <row r="612" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J611" s="13"/>
+    </row>
+    <row r="612" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E612" s="16"/>
       <c r="I612" s="13"/>
-    </row>
-    <row r="613" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J612" s="13"/>
+    </row>
+    <row r="613" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E613" s="16"/>
       <c r="I613" s="13"/>
-    </row>
-    <row r="614" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J613" s="13"/>
+    </row>
+    <row r="614" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E614" s="16"/>
       <c r="I614" s="13"/>
-    </row>
-    <row r="615" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J614" s="13"/>
+    </row>
+    <row r="615" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E615" s="16"/>
       <c r="I615" s="13"/>
-    </row>
-    <row r="616" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J615" s="13"/>
+    </row>
+    <row r="616" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E616" s="16"/>
       <c r="I616" s="13"/>
-    </row>
-    <row r="617" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J616" s="13"/>
+    </row>
+    <row r="617" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E617" s="16"/>
       <c r="I617" s="13"/>
-    </row>
-    <row r="618" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J617" s="13"/>
+    </row>
+    <row r="618" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E618" s="16"/>
       <c r="I618" s="13"/>
-    </row>
-    <row r="619" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J618" s="13"/>
+    </row>
+    <row r="619" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E619" s="16"/>
       <c r="I619" s="13"/>
-    </row>
-    <row r="620" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J619" s="13"/>
+    </row>
+    <row r="620" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E620" s="16"/>
       <c r="I620" s="13"/>
-    </row>
-    <row r="621" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J620" s="13"/>
+    </row>
+    <row r="621" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E621" s="16"/>
       <c r="I621" s="13"/>
-    </row>
-    <row r="622" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J621" s="13"/>
+    </row>
+    <row r="622" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E622" s="16"/>
       <c r="I622" s="13"/>
-    </row>
-    <row r="623" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J622" s="13"/>
+    </row>
+    <row r="623" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E623" s="16"/>
       <c r="I623" s="13"/>
-    </row>
-    <row r="624" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J623" s="13"/>
+    </row>
+    <row r="624" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E624" s="16"/>
       <c r="I624" s="13"/>
-    </row>
-    <row r="625" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J624" s="13"/>
+    </row>
+    <row r="625" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E625" s="16"/>
       <c r="I625" s="13"/>
-    </row>
-    <row r="626" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J625" s="13"/>
+    </row>
+    <row r="626" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E626" s="16"/>
       <c r="I626" s="13"/>
-    </row>
-    <row r="627" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J626" s="13"/>
+    </row>
+    <row r="627" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E627" s="16"/>
       <c r="I627" s="13"/>
-    </row>
-    <row r="628" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J627" s="13"/>
+    </row>
+    <row r="628" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E628" s="16"/>
       <c r="I628" s="13"/>
-    </row>
-    <row r="629" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J628" s="13"/>
+    </row>
+    <row r="629" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E629" s="16"/>
       <c r="I629" s="13"/>
-    </row>
-    <row r="630" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J629" s="13"/>
+    </row>
+    <row r="630" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E630" s="16"/>
       <c r="I630" s="13"/>
-    </row>
-    <row r="631" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J630" s="13"/>
+    </row>
+    <row r="631" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E631" s="16"/>
       <c r="I631" s="13"/>
-    </row>
-    <row r="632" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J631" s="13"/>
+    </row>
+    <row r="632" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E632" s="16"/>
       <c r="I632" s="13"/>
-    </row>
-    <row r="633" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J632" s="13"/>
+    </row>
+    <row r="633" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E633" s="16"/>
       <c r="I633" s="13"/>
-    </row>
-    <row r="634" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J633" s="13"/>
+    </row>
+    <row r="634" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E634" s="16"/>
       <c r="I634" s="13"/>
-    </row>
-    <row r="635" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J634" s="13"/>
+    </row>
+    <row r="635" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E635" s="16"/>
       <c r="I635" s="13"/>
-    </row>
-    <row r="636" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J635" s="13"/>
+    </row>
+    <row r="636" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E636" s="16"/>
       <c r="I636" s="13"/>
-    </row>
-    <row r="637" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J636" s="13"/>
+    </row>
+    <row r="637" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E637" s="16"/>
       <c r="I637" s="13"/>
-    </row>
-    <row r="638" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J637" s="13"/>
+    </row>
+    <row r="638" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E638" s="16"/>
       <c r="I638" s="13"/>
-    </row>
-    <row r="639" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J638" s="13"/>
+    </row>
+    <row r="639" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E639" s="16"/>
       <c r="I639" s="13"/>
-    </row>
-    <row r="640" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J639" s="13"/>
+    </row>
+    <row r="640" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E640" s="16"/>
       <c r="I640" s="13"/>
-    </row>
-    <row r="641" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J640" s="13"/>
+    </row>
+    <row r="641" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E641" s="16"/>
       <c r="I641" s="13"/>
-    </row>
-    <row r="642" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J641" s="13"/>
+    </row>
+    <row r="642" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E642" s="16"/>
       <c r="I642" s="13"/>
-    </row>
-    <row r="643" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J642" s="13"/>
+    </row>
+    <row r="643" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E643" s="16"/>
       <c r="I643" s="13"/>
-    </row>
-    <row r="644" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J643" s="13"/>
+    </row>
+    <row r="644" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E644" s="16"/>
       <c r="I644" s="13"/>
-    </row>
-    <row r="645" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J644" s="13"/>
+    </row>
+    <row r="645" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E645" s="16"/>
       <c r="I645" s="13"/>
-    </row>
-    <row r="646" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J645" s="13"/>
+    </row>
+    <row r="646" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E646" s="16"/>
       <c r="I646" s="13"/>
-    </row>
-    <row r="647" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J646" s="13"/>
+    </row>
+    <row r="647" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E647" s="16"/>
       <c r="I647" s="13"/>
-    </row>
-    <row r="648" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J647" s="13"/>
+    </row>
+    <row r="648" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E648" s="16"/>
       <c r="I648" s="13"/>
-    </row>
-    <row r="649" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J648" s="13"/>
+    </row>
+    <row r="649" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E649" s="16"/>
       <c r="I649" s="13"/>
-    </row>
-    <row r="650" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J649" s="13"/>
+    </row>
+    <row r="650" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E650" s="16"/>
       <c r="I650" s="13"/>
-    </row>
-    <row r="651" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J650" s="13"/>
+    </row>
+    <row r="651" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E651" s="16"/>
       <c r="I651" s="13"/>
-    </row>
-    <row r="652" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J651" s="13"/>
+    </row>
+    <row r="652" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E652" s="16"/>
       <c r="I652" s="13"/>
-    </row>
-    <row r="653" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J652" s="13"/>
+    </row>
+    <row r="653" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E653" s="16"/>
       <c r="I653" s="13"/>
-    </row>
-    <row r="654" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J653" s="13"/>
+    </row>
+    <row r="654" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E654" s="16"/>
       <c r="I654" s="13"/>
-    </row>
-    <row r="655" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J654" s="13"/>
+    </row>
+    <row r="655" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E655" s="16"/>
       <c r="I655" s="13"/>
-    </row>
-    <row r="656" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J655" s="13"/>
+    </row>
+    <row r="656" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E656" s="16"/>
       <c r="I656" s="13"/>
-    </row>
-    <row r="657" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J656" s="13"/>
+    </row>
+    <row r="657" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E657" s="16"/>
       <c r="I657" s="13"/>
-    </row>
-    <row r="658" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J657" s="13"/>
+    </row>
+    <row r="658" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E658" s="16"/>
       <c r="I658" s="13"/>
-    </row>
-    <row r="659" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J658" s="13"/>
+    </row>
+    <row r="659" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E659" s="16"/>
       <c r="I659" s="13"/>
-    </row>
-    <row r="660" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J659" s="13"/>
+    </row>
+    <row r="660" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E660" s="16"/>
       <c r="I660" s="13"/>
-    </row>
-    <row r="661" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J660" s="13"/>
+    </row>
+    <row r="661" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E661" s="16"/>
       <c r="I661" s="13"/>
-    </row>
-    <row r="662" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J661" s="13"/>
+    </row>
+    <row r="662" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E662" s="16"/>
       <c r="I662" s="13"/>
-    </row>
-    <row r="663" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J662" s="13"/>
+    </row>
+    <row r="663" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E663" s="16"/>
       <c r="I663" s="13"/>
-    </row>
-    <row r="664" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J663" s="13"/>
+    </row>
+    <row r="664" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E664" s="16"/>
       <c r="I664" s="13"/>
-    </row>
-    <row r="665" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J664" s="13"/>
+    </row>
+    <row r="665" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E665" s="16"/>
       <c r="I665" s="13"/>
-    </row>
-    <row r="666" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J665" s="13"/>
+    </row>
+    <row r="666" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E666" s="16"/>
       <c r="I666" s="13"/>
-    </row>
-    <row r="667" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J666" s="13"/>
+    </row>
+    <row r="667" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E667" s="16"/>
       <c r="I667" s="13"/>
-    </row>
-    <row r="668" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J667" s="13"/>
+    </row>
+    <row r="668" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E668" s="16"/>
       <c r="I668" s="13"/>
-    </row>
-    <row r="669" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J668" s="13"/>
+    </row>
+    <row r="669" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E669" s="16"/>
       <c r="I669" s="13"/>
-    </row>
-    <row r="670" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J669" s="13"/>
+    </row>
+    <row r="670" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E670" s="16"/>
       <c r="I670" s="13"/>
-    </row>
-    <row r="671" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J670" s="13"/>
+    </row>
+    <row r="671" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E671" s="16"/>
       <c r="I671" s="13"/>
-    </row>
-    <row r="672" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J671" s="13"/>
+    </row>
+    <row r="672" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E672" s="16"/>
       <c r="I672" s="13"/>
-    </row>
-    <row r="673" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J672" s="13"/>
+    </row>
+    <row r="673" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E673" s="16"/>
       <c r="I673" s="13"/>
-    </row>
-    <row r="674" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J673" s="13"/>
+    </row>
+    <row r="674" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E674" s="16"/>
       <c r="I674" s="13"/>
-    </row>
-    <row r="675" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J674" s="13"/>
+    </row>
+    <row r="675" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E675" s="16"/>
       <c r="I675" s="13"/>
-    </row>
-    <row r="676" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J675" s="13"/>
+    </row>
+    <row r="676" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E676" s="16"/>
       <c r="I676" s="13"/>
-    </row>
-    <row r="677" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J676" s="13"/>
+    </row>
+    <row r="677" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E677" s="16"/>
       <c r="I677" s="13"/>
-    </row>
-    <row r="678" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J677" s="13"/>
+    </row>
+    <row r="678" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E678" s="16"/>
       <c r="I678" s="13"/>
-    </row>
-    <row r="679" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J678" s="13"/>
+    </row>
+    <row r="679" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E679" s="16"/>
       <c r="I679" s="13"/>
-    </row>
-    <row r="680" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J679" s="13"/>
+    </row>
+    <row r="680" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E680" s="16"/>
       <c r="I680" s="13"/>
-    </row>
-    <row r="681" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J680" s="13"/>
+    </row>
+    <row r="681" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E681" s="16"/>
       <c r="I681" s="13"/>
-    </row>
-    <row r="682" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J681" s="13"/>
+    </row>
+    <row r="682" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E682" s="16"/>
       <c r="I682" s="13"/>
-    </row>
-    <row r="683" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J682" s="13"/>
+    </row>
+    <row r="683" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E683" s="16"/>
       <c r="I683" s="13"/>
-    </row>
-    <row r="684" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J683" s="13"/>
+    </row>
+    <row r="684" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E684" s="16"/>
       <c r="I684" s="13"/>
-    </row>
-    <row r="685" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J684" s="13"/>
+    </row>
+    <row r="685" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E685" s="16"/>
       <c r="I685" s="13"/>
-    </row>
-    <row r="686" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J685" s="13"/>
+    </row>
+    <row r="686" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E686" s="16"/>
       <c r="I686" s="13"/>
-    </row>
-    <row r="687" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J686" s="13"/>
+    </row>
+    <row r="687" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E687" s="16"/>
       <c r="I687" s="13"/>
-    </row>
-    <row r="688" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J687" s="13"/>
+    </row>
+    <row r="688" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E688" s="16"/>
       <c r="I688" s="13"/>
-    </row>
-    <row r="689" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J688" s="13"/>
+    </row>
+    <row r="689" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E689" s="16"/>
       <c r="I689" s="13"/>
-    </row>
-    <row r="690" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J689" s="13"/>
+    </row>
+    <row r="690" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E690" s="16"/>
       <c r="I690" s="13"/>
-    </row>
-    <row r="691" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J690" s="13"/>
+    </row>
+    <row r="691" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E691" s="16"/>
       <c r="I691" s="13"/>
-    </row>
-    <row r="692" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J691" s="13"/>
+    </row>
+    <row r="692" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E692" s="16"/>
       <c r="I692" s="13"/>
-    </row>
-    <row r="693" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J692" s="13"/>
+    </row>
+    <row r="693" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E693" s="16"/>
       <c r="I693" s="13"/>
-    </row>
-    <row r="694" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J693" s="13"/>
+    </row>
+    <row r="694" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E694" s="16"/>
       <c r="I694" s="13"/>
-    </row>
-    <row r="695" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J694" s="13"/>
+    </row>
+    <row r="695" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E695" s="16"/>
       <c r="I695" s="13"/>
-    </row>
-    <row r="696" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J695" s="13"/>
+    </row>
+    <row r="696" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E696" s="16"/>
       <c r="I696" s="13"/>
-    </row>
-    <row r="697" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J696" s="13"/>
+    </row>
+    <row r="697" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E697" s="16"/>
       <c r="I697" s="13"/>
-    </row>
-    <row r="698" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J697" s="13"/>
+    </row>
+    <row r="698" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E698" s="16"/>
       <c r="I698" s="13"/>
-    </row>
-    <row r="699" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J698" s="13"/>
+    </row>
+    <row r="699" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E699" s="16"/>
       <c r="I699" s="13"/>
-    </row>
-    <row r="700" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J699" s="13"/>
+    </row>
+    <row r="700" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E700" s="16"/>
       <c r="I700" s="13"/>
-    </row>
-    <row r="701" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J700" s="13"/>
+    </row>
+    <row r="701" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E701" s="16"/>
       <c r="I701" s="13"/>
-    </row>
-    <row r="702" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J701" s="13"/>
+    </row>
+    <row r="702" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E702" s="16"/>
       <c r="I702" s="13"/>
-    </row>
-    <row r="703" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J702" s="13"/>
+    </row>
+    <row r="703" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E703" s="16"/>
       <c r="I703" s="13"/>
-    </row>
-    <row r="704" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J703" s="13"/>
+    </row>
+    <row r="704" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E704" s="16"/>
       <c r="I704" s="13"/>
-    </row>
-    <row r="705" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J704" s="13"/>
+    </row>
+    <row r="705" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E705" s="16"/>
       <c r="I705" s="13"/>
-    </row>
-    <row r="706" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J705" s="13"/>
+    </row>
+    <row r="706" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E706" s="16"/>
       <c r="I706" s="13"/>
-    </row>
-    <row r="707" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J706" s="13"/>
+    </row>
+    <row r="707" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E707" s="16"/>
       <c r="I707" s="13"/>
-    </row>
-    <row r="708" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J707" s="13"/>
+    </row>
+    <row r="708" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E708" s="16"/>
       <c r="I708" s="13"/>
-    </row>
-    <row r="709" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J708" s="13"/>
+    </row>
+    <row r="709" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E709" s="16"/>
       <c r="I709" s="13"/>
-    </row>
-    <row r="710" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J709" s="13"/>
+    </row>
+    <row r="710" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E710" s="16"/>
       <c r="I710" s="13"/>
-    </row>
-    <row r="711" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J710" s="13"/>
+    </row>
+    <row r="711" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E711" s="16"/>
       <c r="I711" s="13"/>
-    </row>
-    <row r="712" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J711" s="13"/>
+    </row>
+    <row r="712" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E712" s="16"/>
       <c r="I712" s="13"/>
-    </row>
-    <row r="713" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J712" s="13"/>
+    </row>
+    <row r="713" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E713" s="16"/>
       <c r="I713" s="13"/>
-    </row>
-    <row r="714" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J713" s="13"/>
+    </row>
+    <row r="714" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E714" s="16"/>
       <c r="I714" s="13"/>
-    </row>
-    <row r="715" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J714" s="13"/>
+    </row>
+    <row r="715" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E715" s="16"/>
       <c r="I715" s="13"/>
-    </row>
-    <row r="716" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J715" s="13"/>
+    </row>
+    <row r="716" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E716" s="16"/>
       <c r="I716" s="13"/>
-    </row>
-    <row r="717" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J716" s="13"/>
+    </row>
+    <row r="717" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E717" s="16"/>
       <c r="I717" s="13"/>
-    </row>
-    <row r="718" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J717" s="13"/>
+    </row>
+    <row r="718" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E718" s="16"/>
       <c r="I718" s="13"/>
-    </row>
-    <row r="719" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J718" s="13"/>
+    </row>
+    <row r="719" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E719" s="16"/>
       <c r="I719" s="13"/>
-    </row>
-    <row r="720" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J719" s="13"/>
+    </row>
+    <row r="720" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E720" s="16"/>
       <c r="I720" s="13"/>
-    </row>
-    <row r="721" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J720" s="13"/>
+    </row>
+    <row r="721" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E721" s="16"/>
       <c r="I721" s="13"/>
-    </row>
-    <row r="722" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J721" s="13"/>
+    </row>
+    <row r="722" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E722" s="16"/>
       <c r="I722" s="13"/>
-    </row>
-    <row r="723" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J722" s="13"/>
+    </row>
+    <row r="723" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E723" s="16"/>
       <c r="I723" s="13"/>
-    </row>
-    <row r="724" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J723" s="13"/>
+    </row>
+    <row r="724" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E724" s="16"/>
       <c r="I724" s="13"/>
-    </row>
-    <row r="725" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J724" s="13"/>
+    </row>
+    <row r="725" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E725" s="16"/>
       <c r="I725" s="13"/>
-    </row>
-    <row r="726" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J725" s="13"/>
+    </row>
+    <row r="726" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E726" s="16"/>
       <c r="I726" s="13"/>
-    </row>
-    <row r="727" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J726" s="13"/>
+    </row>
+    <row r="727" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E727" s="16"/>
       <c r="I727" s="13"/>
-    </row>
-    <row r="728" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J727" s="13"/>
+    </row>
+    <row r="728" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E728" s="16"/>
       <c r="I728" s="13"/>
-    </row>
-    <row r="729" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J728" s="13"/>
+    </row>
+    <row r="729" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E729" s="16"/>
       <c r="I729" s="13"/>
-    </row>
-    <row r="730" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J729" s="13"/>
+    </row>
+    <row r="730" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E730" s="16"/>
       <c r="I730" s="13"/>
-    </row>
-    <row r="731" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J730" s="13"/>
+    </row>
+    <row r="731" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E731" s="16"/>
       <c r="I731" s="13"/>
-    </row>
-    <row r="732" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J731" s="13"/>
+    </row>
+    <row r="732" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E732" s="16"/>
       <c r="I732" s="13"/>
-    </row>
-    <row r="733" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J732" s="13"/>
+    </row>
+    <row r="733" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E733" s="16"/>
       <c r="I733" s="13"/>
-    </row>
-    <row r="734" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J733" s="13"/>
+    </row>
+    <row r="734" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E734" s="16"/>
       <c r="I734" s="13"/>
-    </row>
-    <row r="735" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J734" s="13"/>
+    </row>
+    <row r="735" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E735" s="16"/>
       <c r="I735" s="13"/>
-    </row>
-    <row r="736" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J735" s="13"/>
+    </row>
+    <row r="736" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E736" s="16"/>
       <c r="I736" s="13"/>
-    </row>
-    <row r="737" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J736" s="13"/>
+    </row>
+    <row r="737" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E737" s="16"/>
       <c r="I737" s="13"/>
-    </row>
-    <row r="738" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J737" s="13"/>
+    </row>
+    <row r="738" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E738" s="16"/>
       <c r="I738" s="13"/>
-    </row>
-    <row r="739" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J738" s="13"/>
+    </row>
+    <row r="739" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E739" s="16"/>
       <c r="I739" s="13"/>
-    </row>
-    <row r="740" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J739" s="13"/>
+    </row>
+    <row r="740" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E740" s="16"/>
       <c r="I740" s="13"/>
-    </row>
-    <row r="741" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J740" s="13"/>
+    </row>
+    <row r="741" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E741" s="16"/>
       <c r="I741" s="13"/>
-    </row>
-    <row r="742" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J741" s="13"/>
+    </row>
+    <row r="742" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E742" s="16"/>
       <c r="I742" s="13"/>
-    </row>
-    <row r="743" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J742" s="13"/>
+    </row>
+    <row r="743" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E743" s="16"/>
       <c r="I743" s="13"/>
-    </row>
-    <row r="744" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J743" s="13"/>
+    </row>
+    <row r="744" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E744" s="16"/>
       <c r="I744" s="13"/>
-    </row>
-    <row r="745" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J744" s="13"/>
+    </row>
+    <row r="745" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E745" s="16"/>
       <c r="I745" s="13"/>
-    </row>
-    <row r="746" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J745" s="13"/>
+    </row>
+    <row r="746" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E746" s="16"/>
       <c r="I746" s="13"/>
-    </row>
-    <row r="747" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J746" s="13"/>
+    </row>
+    <row r="747" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E747" s="16"/>
       <c r="I747" s="13"/>
-    </row>
-    <row r="748" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J747" s="13"/>
+    </row>
+    <row r="748" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E748" s="16"/>
       <c r="I748" s="13"/>
-    </row>
-    <row r="749" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J748" s="13"/>
+    </row>
+    <row r="749" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E749" s="16"/>
       <c r="I749" s="13"/>
-    </row>
-    <row r="750" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J749" s="13"/>
+    </row>
+    <row r="750" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E750" s="16"/>
       <c r="I750" s="13"/>
-    </row>
-    <row r="751" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J750" s="13"/>
+    </row>
+    <row r="751" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E751" s="16"/>
       <c r="I751" s="13"/>
-    </row>
-    <row r="752" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J751" s="13"/>
+    </row>
+    <row r="752" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E752" s="16"/>
       <c r="I752" s="13"/>
-    </row>
-    <row r="753" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J752" s="13"/>
+    </row>
+    <row r="753" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E753" s="16"/>
       <c r="I753" s="13"/>
-    </row>
-    <row r="754" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J753" s="13"/>
+    </row>
+    <row r="754" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E754" s="16"/>
       <c r="I754" s="13"/>
-    </row>
-    <row r="755" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J754" s="13"/>
+    </row>
+    <row r="755" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E755" s="16"/>
       <c r="I755" s="13"/>
-    </row>
-    <row r="756" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J755" s="13"/>
+    </row>
+    <row r="756" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E756" s="16"/>
       <c r="I756" s="13"/>
-    </row>
-    <row r="757" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J756" s="13"/>
+    </row>
+    <row r="757" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E757" s="16"/>
       <c r="I757" s="13"/>
-    </row>
-    <row r="758" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J757" s="13"/>
+    </row>
+    <row r="758" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E758" s="16"/>
       <c r="I758" s="13"/>
-    </row>
-    <row r="759" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J758" s="13"/>
+    </row>
+    <row r="759" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E759" s="16"/>
       <c r="I759" s="13"/>
-    </row>
-    <row r="760" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J759" s="13"/>
+    </row>
+    <row r="760" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E760" s="16"/>
       <c r="I760" s="13"/>
-    </row>
-    <row r="761" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J760" s="13"/>
+    </row>
+    <row r="761" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E761" s="16"/>
       <c r="I761" s="13"/>
-    </row>
-    <row r="762" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J761" s="13"/>
+    </row>
+    <row r="762" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E762" s="16"/>
       <c r="I762" s="13"/>
-    </row>
-    <row r="763" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J762" s="13"/>
+    </row>
+    <row r="763" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E763" s="16"/>
       <c r="I763" s="13"/>
-    </row>
-    <row r="764" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J763" s="13"/>
+    </row>
+    <row r="764" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E764" s="16"/>
       <c r="I764" s="13"/>
-    </row>
-    <row r="765" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J764" s="13"/>
+    </row>
+    <row r="765" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E765" s="16"/>
       <c r="I765" s="13"/>
-    </row>
-    <row r="766" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J765" s="13"/>
+    </row>
+    <row r="766" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E766" s="16"/>
       <c r="I766" s="13"/>
-    </row>
-    <row r="767" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J766" s="13"/>
+    </row>
+    <row r="767" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E767" s="16"/>
       <c r="I767" s="13"/>
-    </row>
-    <row r="768" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J767" s="13"/>
+    </row>
+    <row r="768" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E768" s="16"/>
       <c r="I768" s="13"/>
-    </row>
-    <row r="769" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J768" s="13"/>
+    </row>
+    <row r="769" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E769" s="16"/>
       <c r="I769" s="13"/>
-    </row>
-    <row r="770" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J769" s="13"/>
+    </row>
+    <row r="770" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E770" s="16"/>
       <c r="I770" s="13"/>
-    </row>
-    <row r="771" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J770" s="13"/>
+    </row>
+    <row r="771" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E771" s="16"/>
       <c r="I771" s="13"/>
-    </row>
-    <row r="772" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J771" s="13"/>
+    </row>
+    <row r="772" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E772" s="16"/>
       <c r="I772" s="13"/>
-    </row>
-    <row r="773" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J772" s="13"/>
+    </row>
+    <row r="773" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E773" s="16"/>
       <c r="I773" s="13"/>
-    </row>
-    <row r="774" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J773" s="13"/>
+    </row>
+    <row r="774" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E774" s="16"/>
       <c r="I774" s="13"/>
-    </row>
-    <row r="775" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J774" s="13"/>
+    </row>
+    <row r="775" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E775" s="16"/>
       <c r="I775" s="13"/>
-    </row>
-    <row r="776" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J775" s="13"/>
+    </row>
+    <row r="776" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E776" s="16"/>
       <c r="I776" s="13"/>
-    </row>
-    <row r="777" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J776" s="13"/>
+    </row>
+    <row r="777" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E777" s="16"/>
       <c r="I777" s="13"/>
-    </row>
-    <row r="778" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J777" s="13"/>
+    </row>
+    <row r="778" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E778" s="16"/>
       <c r="I778" s="13"/>
-    </row>
-    <row r="779" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J778" s="13"/>
+    </row>
+    <row r="779" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E779" s="16"/>
       <c r="I779" s="13"/>
-    </row>
-    <row r="780" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J779" s="13"/>
+    </row>
+    <row r="780" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E780" s="16"/>
       <c r="I780" s="13"/>
-    </row>
-    <row r="781" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J780" s="13"/>
+    </row>
+    <row r="781" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E781" s="16"/>
       <c r="I781" s="13"/>
-    </row>
-    <row r="782" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J781" s="13"/>
+    </row>
+    <row r="782" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E782" s="16"/>
       <c r="I782" s="13"/>
-    </row>
-    <row r="783" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J782" s="13"/>
+    </row>
+    <row r="783" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E783" s="16"/>
       <c r="I783" s="13"/>
-    </row>
-    <row r="784" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J783" s="13"/>
+    </row>
+    <row r="784" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E784" s="16"/>
       <c r="I784" s="13"/>
-    </row>
-    <row r="785" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J784" s="13"/>
+    </row>
+    <row r="785" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E785" s="16"/>
       <c r="I785" s="13"/>
-    </row>
-    <row r="786" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J785" s="13"/>
+    </row>
+    <row r="786" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E786" s="16"/>
       <c r="I786" s="13"/>
-    </row>
-    <row r="787" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J786" s="13"/>
+    </row>
+    <row r="787" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E787" s="16"/>
       <c r="I787" s="13"/>
-    </row>
-    <row r="788" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J787" s="13"/>
+    </row>
+    <row r="788" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E788" s="16"/>
       <c r="I788" s="13"/>
-    </row>
-    <row r="789" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J788" s="13"/>
+    </row>
+    <row r="789" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E789" s="16"/>
       <c r="I789" s="13"/>
-    </row>
-    <row r="790" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J789" s="13"/>
+    </row>
+    <row r="790" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E790" s="16"/>
       <c r="I790" s="13"/>
-    </row>
-    <row r="791" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J790" s="13"/>
+    </row>
+    <row r="791" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E791" s="16"/>
       <c r="I791" s="13"/>
-    </row>
-    <row r="792" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J791" s="13"/>
+    </row>
+    <row r="792" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E792" s="16"/>
       <c r="I792" s="13"/>
-    </row>
-    <row r="793" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J792" s="13"/>
+    </row>
+    <row r="793" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E793" s="16"/>
       <c r="I793" s="13"/>
-    </row>
-    <row r="794" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J793" s="13"/>
+    </row>
+    <row r="794" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E794" s="16"/>
       <c r="I794" s="13"/>
-    </row>
-    <row r="795" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J794" s="13"/>
+    </row>
+    <row r="795" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E795" s="16"/>
       <c r="I795" s="13"/>
-    </row>
-    <row r="796" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J795" s="13"/>
+    </row>
+    <row r="796" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E796" s="16"/>
       <c r="I796" s="13"/>
-    </row>
-    <row r="797" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J796" s="13"/>
+    </row>
+    <row r="797" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E797" s="16"/>
       <c r="I797" s="13"/>
-    </row>
-    <row r="798" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J797" s="13"/>
+    </row>
+    <row r="798" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E798" s="16"/>
       <c r="I798" s="13"/>
-    </row>
-    <row r="799" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J798" s="13"/>
+    </row>
+    <row r="799" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E799" s="16"/>
       <c r="I799" s="13"/>
-    </row>
-    <row r="800" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J799" s="13"/>
+    </row>
+    <row r="800" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E800" s="16"/>
       <c r="I800" s="13"/>
-    </row>
-    <row r="801" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J800" s="13"/>
+    </row>
+    <row r="801" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E801" s="16"/>
       <c r="I801" s="13"/>
-    </row>
-    <row r="802" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J801" s="13"/>
+    </row>
+    <row r="802" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E802" s="16"/>
       <c r="I802" s="13"/>
-    </row>
-    <row r="803" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J802" s="13"/>
+    </row>
+    <row r="803" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E803" s="16"/>
       <c r="I803" s="13"/>
-    </row>
-    <row r="804" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J803" s="13"/>
+    </row>
+    <row r="804" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E804" s="16"/>
       <c r="I804" s="13"/>
-    </row>
-    <row r="805" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J804" s="13"/>
+    </row>
+    <row r="805" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E805" s="16"/>
       <c r="I805" s="13"/>
-    </row>
-    <row r="806" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J805" s="13"/>
+    </row>
+    <row r="806" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E806" s="16"/>
       <c r="I806" s="13"/>
-    </row>
-    <row r="807" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J806" s="13"/>
+    </row>
+    <row r="807" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E807" s="16"/>
       <c r="I807" s="13"/>
-    </row>
-    <row r="808" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J807" s="13"/>
+    </row>
+    <row r="808" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E808" s="16"/>
       <c r="I808" s="13"/>
-    </row>
-    <row r="809" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J808" s="13"/>
+    </row>
+    <row r="809" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E809" s="16"/>
       <c r="I809" s="13"/>
-    </row>
-    <row r="810" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J809" s="13"/>
+    </row>
+    <row r="810" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E810" s="16"/>
       <c r="I810" s="13"/>
-    </row>
-    <row r="811" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J810" s="13"/>
+    </row>
+    <row r="811" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E811" s="16"/>
       <c r="I811" s="13"/>
-    </row>
-    <row r="812" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J811" s="13"/>
+    </row>
+    <row r="812" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E812" s="16"/>
       <c r="I812" s="13"/>
-    </row>
-    <row r="813" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J812" s="13"/>
+    </row>
+    <row r="813" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E813" s="16"/>
       <c r="I813" s="13"/>
-    </row>
-    <row r="814" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J813" s="13"/>
+    </row>
+    <row r="814" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E814" s="16"/>
       <c r="I814" s="13"/>
-    </row>
-    <row r="815" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J814" s="13"/>
+    </row>
+    <row r="815" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E815" s="16"/>
       <c r="I815" s="13"/>
-    </row>
-    <row r="816" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J815" s="13"/>
+    </row>
+    <row r="816" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E816" s="16"/>
       <c r="I816" s="13"/>
-    </row>
-    <row r="817" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J816" s="13"/>
+    </row>
+    <row r="817" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E817" s="16"/>
       <c r="I817" s="13"/>
-    </row>
-    <row r="818" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J817" s="13"/>
+    </row>
+    <row r="818" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E818" s="16"/>
       <c r="I818" s="13"/>
-    </row>
-    <row r="819" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J818" s="13"/>
+    </row>
+    <row r="819" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E819" s="16"/>
       <c r="I819" s="13"/>
-    </row>
-    <row r="820" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J819" s="13"/>
+    </row>
+    <row r="820" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E820" s="16"/>
       <c r="I820" s="13"/>
-    </row>
-    <row r="821" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J820" s="13"/>
+    </row>
+    <row r="821" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E821" s="16"/>
       <c r="I821" s="13"/>
-    </row>
-    <row r="822" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J821" s="13"/>
+    </row>
+    <row r="822" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E822" s="16"/>
       <c r="I822" s="13"/>
-    </row>
-    <row r="823" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J822" s="13"/>
+    </row>
+    <row r="823" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E823" s="16"/>
       <c r="I823" s="13"/>
-    </row>
-    <row r="824" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J823" s="13"/>
+    </row>
+    <row r="824" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E824" s="16"/>
       <c r="I824" s="13"/>
-    </row>
-    <row r="825" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J824" s="13"/>
+    </row>
+    <row r="825" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E825" s="16"/>
       <c r="I825" s="13"/>
-    </row>
-    <row r="826" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J825" s="13"/>
+    </row>
+    <row r="826" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E826" s="16"/>
       <c r="I826" s="13"/>
-    </row>
-    <row r="827" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J826" s="13"/>
+    </row>
+    <row r="827" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E827" s="16"/>
       <c r="I827" s="13"/>
-    </row>
-    <row r="828" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J827" s="13"/>
+    </row>
+    <row r="828" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E828" s="16"/>
       <c r="I828" s="13"/>
-    </row>
-    <row r="829" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J828" s="13"/>
+    </row>
+    <row r="829" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E829" s="16"/>
       <c r="I829" s="13"/>
-    </row>
-    <row r="830" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J829" s="13"/>
+    </row>
+    <row r="830" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E830" s="16"/>
       <c r="I830" s="13"/>
-    </row>
-    <row r="831" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J830" s="13"/>
+    </row>
+    <row r="831" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E831" s="16"/>
       <c r="I831" s="13"/>
-    </row>
-    <row r="832" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J831" s="13"/>
+    </row>
+    <row r="832" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E832" s="16"/>
       <c r="I832" s="13"/>
-    </row>
-    <row r="833" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J832" s="13"/>
+    </row>
+    <row r="833" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E833" s="16"/>
       <c r="I833" s="13"/>
-    </row>
-    <row r="834" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J833" s="13"/>
+    </row>
+    <row r="834" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E834" s="16"/>
       <c r="I834" s="13"/>
-    </row>
-    <row r="835" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J834" s="13"/>
+    </row>
+    <row r="835" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E835" s="16"/>
       <c r="I835" s="13"/>
-    </row>
-    <row r="836" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J835" s="13"/>
+    </row>
+    <row r="836" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E836" s="16"/>
       <c r="I836" s="13"/>
-    </row>
-    <row r="837" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J836" s="13"/>
+    </row>
+    <row r="837" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E837" s="16"/>
       <c r="I837" s="13"/>
-    </row>
-    <row r="838" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J837" s="13"/>
+    </row>
+    <row r="838" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E838" s="16"/>
       <c r="I838" s="13"/>
-    </row>
-    <row r="839" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J838" s="13"/>
+    </row>
+    <row r="839" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E839" s="16"/>
       <c r="I839" s="13"/>
-    </row>
-    <row r="840" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J839" s="13"/>
+    </row>
+    <row r="840" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E840" s="16"/>
       <c r="I840" s="13"/>
-    </row>
-    <row r="841" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J840" s="13"/>
+    </row>
+    <row r="841" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E841" s="16"/>
       <c r="I841" s="13"/>
-    </row>
-    <row r="842" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J841" s="13"/>
+    </row>
+    <row r="842" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E842" s="16"/>
       <c r="I842" s="13"/>
-    </row>
-    <row r="843" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J842" s="13"/>
+    </row>
+    <row r="843" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E843" s="16"/>
       <c r="I843" s="13"/>
-    </row>
-    <row r="844" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J843" s="13"/>
+    </row>
+    <row r="844" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E844" s="16"/>
       <c r="I844" s="13"/>
-    </row>
-    <row r="845" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J844" s="13"/>
+    </row>
+    <row r="845" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E845" s="16"/>
       <c r="I845" s="13"/>
-    </row>
-    <row r="846" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J845" s="13"/>
+    </row>
+    <row r="846" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E846" s="16"/>
       <c r="I846" s="13"/>
-    </row>
-    <row r="847" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J846" s="13"/>
+    </row>
+    <row r="847" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E847" s="16"/>
       <c r="I847" s="13"/>
-    </row>
-    <row r="848" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J847" s="13"/>
+    </row>
+    <row r="848" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E848" s="16"/>
       <c r="I848" s="13"/>
-    </row>
-    <row r="849" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J848" s="13"/>
+    </row>
+    <row r="849" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E849" s="16"/>
       <c r="I849" s="13"/>
-    </row>
-    <row r="850" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J849" s="13"/>
+    </row>
+    <row r="850" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E850" s="16"/>
       <c r="I850" s="13"/>
-    </row>
-    <row r="851" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J850" s="13"/>
+    </row>
+    <row r="851" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E851" s="16"/>
       <c r="I851" s="13"/>
-    </row>
-    <row r="852" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J851" s="13"/>
+    </row>
+    <row r="852" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E852" s="16"/>
       <c r="I852" s="13"/>
-    </row>
-    <row r="853" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J852" s="13"/>
+    </row>
+    <row r="853" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E853" s="16"/>
       <c r="I853" s="13"/>
-    </row>
-    <row r="854" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J853" s="13"/>
+    </row>
+    <row r="854" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E854" s="16"/>
       <c r="I854" s="13"/>
-    </row>
-    <row r="855" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J854" s="13"/>
+    </row>
+    <row r="855" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E855" s="16"/>
       <c r="I855" s="13"/>
-    </row>
-    <row r="856" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J855" s="13"/>
+    </row>
+    <row r="856" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E856" s="16"/>
       <c r="I856" s="13"/>
-    </row>
-    <row r="857" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J856" s="13"/>
+    </row>
+    <row r="857" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E857" s="16"/>
       <c r="I857" s="13"/>
-    </row>
-    <row r="858" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J857" s="13"/>
+    </row>
+    <row r="858" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E858" s="16"/>
       <c r="I858" s="13"/>
-    </row>
-    <row r="859" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J858" s="13"/>
+    </row>
+    <row r="859" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E859" s="16"/>
       <c r="I859" s="13"/>
-    </row>
-    <row r="860" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J859" s="13"/>
+    </row>
+    <row r="860" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E860" s="16"/>
       <c r="I860" s="13"/>
-    </row>
-    <row r="861" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J860" s="13"/>
+    </row>
+    <row r="861" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E861" s="16"/>
       <c r="I861" s="13"/>
-    </row>
-    <row r="862" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J861" s="13"/>
+    </row>
+    <row r="862" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E862" s="16"/>
       <c r="I862" s="13"/>
-    </row>
-    <row r="863" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J862" s="13"/>
+    </row>
+    <row r="863" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E863" s="16"/>
       <c r="I863" s="13"/>
-    </row>
-    <row r="864" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J863" s="13"/>
+    </row>
+    <row r="864" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E864" s="16"/>
       <c r="I864" s="13"/>
-    </row>
-    <row r="865" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J864" s="13"/>
+    </row>
+    <row r="865" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E865" s="16"/>
       <c r="I865" s="13"/>
-    </row>
-    <row r="866" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J865" s="13"/>
+    </row>
+    <row r="866" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E866" s="16"/>
       <c r="I866" s="13"/>
-    </row>
-    <row r="867" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J866" s="13"/>
+    </row>
+    <row r="867" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E867" s="16"/>
       <c r="I867" s="13"/>
-    </row>
-    <row r="868" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J867" s="13"/>
+    </row>
+    <row r="868" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E868" s="16"/>
       <c r="I868" s="13"/>
-    </row>
-    <row r="869" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J868" s="13"/>
+    </row>
+    <row r="869" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E869" s="16"/>
       <c r="I869" s="13"/>
-    </row>
-    <row r="870" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J869" s="13"/>
+    </row>
+    <row r="870" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E870" s="16"/>
       <c r="I870" s="13"/>
-    </row>
-    <row r="871" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J870" s="13"/>
+    </row>
+    <row r="871" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E871" s="16"/>
       <c r="I871" s="13"/>
-    </row>
-    <row r="872" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J871" s="13"/>
+    </row>
+    <row r="872" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E872" s="16"/>
       <c r="I872" s="13"/>
-    </row>
-    <row r="873" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J872" s="13"/>
+    </row>
+    <row r="873" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E873" s="16"/>
       <c r="I873" s="13"/>
-    </row>
-    <row r="874" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J873" s="13"/>
+    </row>
+    <row r="874" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E874" s="16"/>
       <c r="I874" s="13"/>
-    </row>
-    <row r="875" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J874" s="13"/>
+    </row>
+    <row r="875" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E875" s="16"/>
       <c r="I875" s="13"/>
-    </row>
-    <row r="876" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J875" s="13"/>
+    </row>
+    <row r="876" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E876" s="16"/>
       <c r="I876" s="13"/>
-    </row>
-    <row r="877" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J876" s="13"/>
+    </row>
+    <row r="877" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E877" s="16"/>
       <c r="I877" s="13"/>
-    </row>
-    <row r="878" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J877" s="13"/>
+    </row>
+    <row r="878" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E878" s="16"/>
       <c r="I878" s="13"/>
-    </row>
-    <row r="879" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J878" s="13"/>
+    </row>
+    <row r="879" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E879" s="16"/>
       <c r="I879" s="13"/>
-    </row>
-    <row r="880" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J879" s="13"/>
+    </row>
+    <row r="880" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E880" s="16"/>
       <c r="I880" s="13"/>
-    </row>
-    <row r="881" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J880" s="13"/>
+    </row>
+    <row r="881" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E881" s="16"/>
       <c r="I881" s="13"/>
-    </row>
-    <row r="882" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J881" s="13"/>
+    </row>
+    <row r="882" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E882" s="16"/>
       <c r="I882" s="13"/>
-    </row>
-    <row r="883" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J882" s="13"/>
+    </row>
+    <row r="883" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E883" s="16"/>
       <c r="I883" s="13"/>
-    </row>
-    <row r="884" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J883" s="13"/>
+    </row>
+    <row r="884" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E884" s="16"/>
       <c r="I884" s="13"/>
-    </row>
-    <row r="885" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J884" s="13"/>
+    </row>
+    <row r="885" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E885" s="16"/>
       <c r="I885" s="13"/>
-    </row>
-    <row r="886" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J885" s="13"/>
+    </row>
+    <row r="886" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E886" s="16"/>
       <c r="I886" s="13"/>
-    </row>
-    <row r="887" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J886" s="13"/>
+    </row>
+    <row r="887" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E887" s="16"/>
       <c r="I887" s="13"/>
-    </row>
-    <row r="888" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J887" s="13"/>
+    </row>
+    <row r="888" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E888" s="16"/>
       <c r="I888" s="13"/>
-    </row>
-    <row r="889" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J888" s="13"/>
+    </row>
+    <row r="889" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E889" s="16"/>
       <c r="I889" s="13"/>
-    </row>
-    <row r="890" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J889" s="13"/>
+    </row>
+    <row r="890" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E890" s="16"/>
       <c r="I890" s="13"/>
-    </row>
-    <row r="891" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J890" s="13"/>
+    </row>
+    <row r="891" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E891" s="16"/>
       <c r="I891" s="13"/>
-    </row>
-    <row r="892" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J891" s="13"/>
+    </row>
+    <row r="892" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E892" s="16"/>
       <c r="I892" s="13"/>
-    </row>
-    <row r="893" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J892" s="13"/>
+    </row>
+    <row r="893" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E893" s="16"/>
       <c r="I893" s="13"/>
-    </row>
-    <row r="894" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J893" s="13"/>
+    </row>
+    <row r="894" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E894" s="16"/>
       <c r="I894" s="13"/>
-    </row>
-    <row r="895" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J894" s="13"/>
+    </row>
+    <row r="895" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E895" s="16"/>
       <c r="I895" s="13"/>
-    </row>
-    <row r="896" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J895" s="13"/>
+    </row>
+    <row r="896" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E896" s="16"/>
       <c r="I896" s="13"/>
-    </row>
-    <row r="897" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J896" s="13"/>
+    </row>
+    <row r="897" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E897" s="16"/>
       <c r="I897" s="13"/>
-    </row>
-    <row r="898" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J897" s="13"/>
+    </row>
+    <row r="898" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E898" s="16"/>
       <c r="I898" s="13"/>
-    </row>
-    <row r="899" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J898" s="13"/>
+    </row>
+    <row r="899" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E899" s="16"/>
       <c r="I899" s="13"/>
-    </row>
-    <row r="900" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J899" s="13"/>
+    </row>
+    <row r="900" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E900" s="16"/>
       <c r="I900" s="13"/>
-    </row>
-    <row r="901" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J900" s="13"/>
+    </row>
+    <row r="901" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E901" s="16"/>
       <c r="I901" s="13"/>
-    </row>
-    <row r="902" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J901" s="13"/>
+    </row>
+    <row r="902" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E902" s="16"/>
       <c r="I902" s="13"/>
-    </row>
-    <row r="903" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J902" s="13"/>
+    </row>
+    <row r="903" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E903" s="16"/>
       <c r="I903" s="13"/>
-    </row>
-    <row r="904" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J903" s="13"/>
+    </row>
+    <row r="904" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E904" s="16"/>
       <c r="I904" s="13"/>
-    </row>
-    <row r="905" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J904" s="13"/>
+    </row>
+    <row r="905" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E905" s="16"/>
       <c r="I905" s="13"/>
-    </row>
-    <row r="906" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J905" s="13"/>
+    </row>
+    <row r="906" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E906" s="16"/>
       <c r="I906" s="13"/>
-    </row>
-    <row r="907" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J906" s="13"/>
+    </row>
+    <row r="907" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E907" s="16"/>
       <c r="I907" s="13"/>
-    </row>
-    <row r="908" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J907" s="13"/>
+    </row>
+    <row r="908" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E908" s="16"/>
       <c r="I908" s="13"/>
-    </row>
-    <row r="909" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J908" s="13"/>
+    </row>
+    <row r="909" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E909" s="16"/>
       <c r="I909" s="13"/>
-    </row>
-    <row r="910" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J909" s="13"/>
+    </row>
+    <row r="910" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E910" s="16"/>
       <c r="I910" s="13"/>
-    </row>
-    <row r="911" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J910" s="13"/>
+    </row>
+    <row r="911" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E911" s="16"/>
       <c r="I911" s="13"/>
-    </row>
-    <row r="912" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J911" s="13"/>
+    </row>
+    <row r="912" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E912" s="16"/>
       <c r="I912" s="13"/>
-    </row>
-    <row r="913" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J912" s="13"/>
+    </row>
+    <row r="913" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E913" s="16"/>
       <c r="I913" s="13"/>
-    </row>
-    <row r="914" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J913" s="13"/>
+    </row>
+    <row r="914" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E914" s="16"/>
       <c r="I914" s="13"/>
-    </row>
-    <row r="915" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J914" s="13"/>
+    </row>
+    <row r="915" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E915" s="16"/>
       <c r="I915" s="13"/>
-    </row>
-    <row r="916" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J915" s="13"/>
+    </row>
+    <row r="916" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E916" s="16"/>
       <c r="I916" s="13"/>
-    </row>
-    <row r="917" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J916" s="13"/>
+    </row>
+    <row r="917" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E917" s="16"/>
       <c r="I917" s="13"/>
-    </row>
-    <row r="918" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J917" s="13"/>
+    </row>
+    <row r="918" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E918" s="16"/>
       <c r="I918" s="13"/>
-    </row>
-    <row r="919" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J918" s="13"/>
+    </row>
+    <row r="919" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E919" s="16"/>
       <c r="I919" s="13"/>
-    </row>
-    <row r="920" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J919" s="13"/>
+    </row>
+    <row r="920" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E920" s="16"/>
       <c r="I920" s="13"/>
-    </row>
-    <row r="921" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J920" s="13"/>
+    </row>
+    <row r="921" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E921" s="16"/>
       <c r="I921" s="13"/>
-    </row>
-    <row r="922" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J921" s="13"/>
+    </row>
+    <row r="922" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E922" s="16"/>
       <c r="I922" s="13"/>
-    </row>
-    <row r="923" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J922" s="13"/>
+    </row>
+    <row r="923" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E923" s="16"/>
       <c r="I923" s="13"/>
-    </row>
-    <row r="924" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J923" s="13"/>
+    </row>
+    <row r="924" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E924" s="16"/>
       <c r="I924" s="13"/>
-    </row>
-    <row r="925" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J924" s="13"/>
+    </row>
+    <row r="925" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E925" s="16"/>
       <c r="I925" s="13"/>
-    </row>
-    <row r="926" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J925" s="13"/>
+    </row>
+    <row r="926" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E926" s="16"/>
       <c r="I926" s="13"/>
-    </row>
-    <row r="927" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J926" s="13"/>
+    </row>
+    <row r="927" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E927" s="16"/>
       <c r="I927" s="13"/>
-    </row>
-    <row r="928" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J927" s="13"/>
+    </row>
+    <row r="928" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E928" s="16"/>
       <c r="I928" s="13"/>
-    </row>
-    <row r="929" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J928" s="13"/>
+    </row>
+    <row r="929" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E929" s="16"/>
       <c r="I929" s="13"/>
-    </row>
-    <row r="930" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J929" s="13"/>
+    </row>
+    <row r="930" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E930" s="16"/>
       <c r="I930" s="13"/>
-    </row>
-    <row r="931" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J930" s="13"/>
+    </row>
+    <row r="931" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E931" s="16"/>
       <c r="I931" s="13"/>
-    </row>
-    <row r="932" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J931" s="13"/>
+    </row>
+    <row r="932" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E932" s="16"/>
       <c r="I932" s="13"/>
-    </row>
-    <row r="933" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J932" s="13"/>
+    </row>
+    <row r="933" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E933" s="16"/>
       <c r="I933" s="13"/>
-    </row>
-    <row r="934" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J933" s="13"/>
+    </row>
+    <row r="934" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E934" s="16"/>
       <c r="I934" s="13"/>
-    </row>
-    <row r="935" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J934" s="13"/>
+    </row>
+    <row r="935" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E935" s="16"/>
       <c r="I935" s="13"/>
-    </row>
-    <row r="936" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J935" s="13"/>
+    </row>
+    <row r="936" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E936" s="16"/>
       <c r="I936" s="13"/>
-    </row>
-    <row r="937" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J936" s="13"/>
+    </row>
+    <row r="937" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E937" s="16"/>
       <c r="I937" s="13"/>
-    </row>
-    <row r="938" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J937" s="13"/>
+    </row>
+    <row r="938" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E938" s="16"/>
       <c r="I938" s="13"/>
-    </row>
-    <row r="939" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J938" s="13"/>
+    </row>
+    <row r="939" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E939" s="16"/>
       <c r="I939" s="13"/>
-    </row>
-    <row r="940" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J939" s="13"/>
+    </row>
+    <row r="940" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E940" s="16"/>
       <c r="I940" s="13"/>
-    </row>
-    <row r="941" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J940" s="13"/>
+    </row>
+    <row r="941" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E941" s="16"/>
       <c r="I941" s="13"/>
-    </row>
-    <row r="942" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J941" s="13"/>
+    </row>
+    <row r="942" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E942" s="16"/>
       <c r="I942" s="13"/>
-    </row>
-    <row r="943" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J942" s="13"/>
+    </row>
+    <row r="943" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E943" s="16"/>
       <c r="I943" s="13"/>
-    </row>
-    <row r="944" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J943" s="13"/>
+    </row>
+    <row r="944" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E944" s="16"/>
       <c r="I944" s="13"/>
-    </row>
-    <row r="945" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J944" s="13"/>
+    </row>
+    <row r="945" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E945" s="16"/>
       <c r="I945" s="13"/>
-    </row>
-    <row r="946" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J945" s="13"/>
+    </row>
+    <row r="946" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E946" s="16"/>
       <c r="I946" s="13"/>
-    </row>
-    <row r="947" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J946" s="13"/>
+    </row>
+    <row r="947" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E947" s="16"/>
       <c r="I947" s="13"/>
-    </row>
-    <row r="948" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J947" s="13"/>
+    </row>
+    <row r="948" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E948" s="16"/>
       <c r="I948" s="13"/>
-    </row>
-    <row r="949" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J948" s="13"/>
+    </row>
+    <row r="949" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E949" s="16"/>
       <c r="I949" s="13"/>
-    </row>
-    <row r="950" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J949" s="13"/>
+    </row>
+    <row r="950" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E950" s="16"/>
       <c r="I950" s="13"/>
-    </row>
-    <row r="951" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J950" s="13"/>
+    </row>
+    <row r="951" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E951" s="16"/>
       <c r="I951" s="13"/>
-    </row>
-    <row r="952" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J951" s="13"/>
+    </row>
+    <row r="952" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E952" s="16"/>
       <c r="I952" s="13"/>
-    </row>
-    <row r="953" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J952" s="13"/>
+    </row>
+    <row r="953" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E953" s="16"/>
       <c r="I953" s="13"/>
-    </row>
-    <row r="954" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J953" s="13"/>
+    </row>
+    <row r="954" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E954" s="16"/>
       <c r="I954" s="13"/>
-    </row>
-    <row r="955" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J954" s="13"/>
+    </row>
+    <row r="955" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E955" s="16"/>
       <c r="I955" s="13"/>
-    </row>
-    <row r="956" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J955" s="13"/>
+    </row>
+    <row r="956" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E956" s="16"/>
       <c r="I956" s="13"/>
-    </row>
-    <row r="957" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J956" s="13"/>
+    </row>
+    <row r="957" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E957" s="16"/>
       <c r="I957" s="13"/>
-    </row>
-    <row r="958" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J957" s="13"/>
+    </row>
+    <row r="958" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E958" s="16"/>
       <c r="I958" s="13"/>
-    </row>
-    <row r="959" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J958" s="13"/>
+    </row>
+    <row r="959" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E959" s="16"/>
       <c r="I959" s="13"/>
-    </row>
-    <row r="960" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J959" s="13"/>
+    </row>
+    <row r="960" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E960" s="16"/>
       <c r="I960" s="13"/>
-    </row>
-    <row r="961" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J960" s="13"/>
+    </row>
+    <row r="961" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E961" s="16"/>
       <c r="I961" s="13"/>
-    </row>
-    <row r="962" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J961" s="13"/>
+    </row>
+    <row r="962" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E962" s="16"/>
       <c r="I962" s="13"/>
-    </row>
-    <row r="963" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J962" s="13"/>
+    </row>
+    <row r="963" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E963" s="16"/>
       <c r="I963" s="13"/>
-    </row>
-    <row r="964" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J963" s="13"/>
+    </row>
+    <row r="964" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E964" s="16"/>
       <c r="I964" s="13"/>
-    </row>
-    <row r="965" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J964" s="13"/>
+    </row>
+    <row r="965" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E965" s="16"/>
       <c r="I965" s="13"/>
-    </row>
-    <row r="966" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J965" s="13"/>
+    </row>
+    <row r="966" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E966" s="16"/>
       <c r="I966" s="13"/>
-    </row>
-    <row r="967" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J966" s="13"/>
+    </row>
+    <row r="967" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E967" s="16"/>
       <c r="I967" s="13"/>
-    </row>
-    <row r="968" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J967" s="13"/>
+    </row>
+    <row r="968" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E968" s="16"/>
       <c r="I968" s="13"/>
-    </row>
-    <row r="969" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J968" s="13"/>
+    </row>
+    <row r="969" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E969" s="16"/>
       <c r="I969" s="13"/>
-    </row>
-    <row r="970" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J969" s="13"/>
+    </row>
+    <row r="970" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E970" s="16"/>
       <c r="I970" s="13"/>
-    </row>
-    <row r="971" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J970" s="13"/>
+    </row>
+    <row r="971" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E971" s="16"/>
       <c r="I971" s="13"/>
-    </row>
-    <row r="972" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J971" s="13"/>
+    </row>
+    <row r="972" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E972" s="16"/>
       <c r="I972" s="13"/>
-    </row>
-    <row r="973" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J972" s="13"/>
+    </row>
+    <row r="973" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E973" s="16"/>
       <c r="I973" s="13"/>
-    </row>
-    <row r="974" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J973" s="13"/>
+    </row>
+    <row r="974" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E974" s="16"/>
       <c r="I974" s="13"/>
-    </row>
-    <row r="975" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J974" s="13"/>
+    </row>
+    <row r="975" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E975" s="16"/>
       <c r="I975" s="13"/>
-    </row>
-    <row r="976" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J975" s="13"/>
+    </row>
+    <row r="976" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E976" s="16"/>
       <c r="I976" s="13"/>
-    </row>
-    <row r="977" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J976" s="13"/>
+    </row>
+    <row r="977" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E977" s="16"/>
       <c r="I977" s="13"/>
-    </row>
-    <row r="978" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J977" s="13"/>
+    </row>
+    <row r="978" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E978" s="16"/>
       <c r="I978" s="13"/>
-    </row>
-    <row r="979" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J978" s="13"/>
+    </row>
+    <row r="979" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E979" s="16"/>
       <c r="I979" s="13"/>
-    </row>
-    <row r="980" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J979" s="13"/>
+    </row>
+    <row r="980" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E980" s="16"/>
       <c r="I980" s="13"/>
-    </row>
-    <row r="981" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J980" s="13"/>
+    </row>
+    <row r="981" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E981" s="16"/>
       <c r="I981" s="13"/>
-    </row>
-    <row r="982" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J981" s="13"/>
+    </row>
+    <row r="982" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E982" s="16"/>
       <c r="I982" s="13"/>
-    </row>
-    <row r="983" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J982" s="13"/>
+    </row>
+    <row r="983" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E983" s="16"/>
       <c r="I983" s="13"/>
-    </row>
-    <row r="984" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J983" s="13"/>
+    </row>
+    <row r="984" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E984" s="16"/>
       <c r="I984" s="13"/>
-    </row>
-    <row r="985" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J984" s="13"/>
+    </row>
+    <row r="985" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E985" s="16"/>
       <c r="I985" s="13"/>
-    </row>
-    <row r="986" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J985" s="13"/>
+    </row>
+    <row r="986" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E986" s="16"/>
       <c r="I986" s="13"/>
-    </row>
-    <row r="987" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J986" s="13"/>
+    </row>
+    <row r="987" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E987" s="16"/>
       <c r="I987" s="13"/>
-    </row>
-    <row r="988" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J987" s="13"/>
+    </row>
+    <row r="988" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E988" s="16"/>
       <c r="I988" s="13"/>
-    </row>
-    <row r="989" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J988" s="13"/>
+    </row>
+    <row r="989" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E989" s="16"/>
       <c r="I989" s="13"/>
-    </row>
-    <row r="990" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J989" s="13"/>
+    </row>
+    <row r="990" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E990" s="16"/>
       <c r="I990" s="13"/>
-    </row>
-    <row r="991" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J990" s="13"/>
+    </row>
+    <row r="991" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E991" s="16"/>
       <c r="I991" s="13"/>
-    </row>
-    <row r="992" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J991" s="13"/>
+    </row>
+    <row r="992" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E992" s="16"/>
       <c r="I992" s="13"/>
-    </row>
-    <row r="993" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J992" s="13"/>
+    </row>
+    <row r="993" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E993" s="16"/>
       <c r="I993" s="13"/>
-    </row>
-    <row r="994" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J993" s="13"/>
+    </row>
+    <row r="994" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E994" s="16"/>
       <c r="I994" s="13"/>
-    </row>
-    <row r="995" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J994" s="13"/>
+    </row>
+    <row r="995" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E995" s="16"/>
       <c r="I995" s="13"/>
-    </row>
-    <row r="996" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J995" s="13"/>
+    </row>
+    <row r="996" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E996" s="16"/>
       <c r="I996" s="13"/>
-    </row>
-    <row r="997" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J996" s="13"/>
+    </row>
+    <row r="997" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E997" s="16"/>
       <c r="I997" s="13"/>
-    </row>
-    <row r="998" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J997" s="13"/>
+    </row>
+    <row r="998" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E998" s="16"/>
       <c r="I998" s="13"/>
-    </row>
-    <row r="999" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J998" s="13"/>
+    </row>
+    <row r="999" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E999" s="16"/>
       <c r="I999" s="13"/>
-    </row>
-    <row r="1000" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J999" s="13"/>
+    </row>
+    <row r="1000" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E1000" s="16"/>
       <c r="I1000" s="13"/>
-    </row>
-    <row r="1001" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J1000" s="13"/>
+    </row>
+    <row r="1001" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E1001" s="16"/>
       <c r="I1001" s="13"/>
+      <c r="J1001" s="13"/>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" insertRows="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
@@ -4645,7 +5651,7 @@
           <x14:formula1>
             <xm:f>Lists!$B$2:$B$8</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I1001</xm:sqref>
+          <xm:sqref>I2:J1001</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>

--- a/Additional Libraries/Templates/Resources/PurchaseEntries.xlsx
+++ b/Additional Libraries/Templates/Resources/PurchaseEntries.xlsx
@@ -505,9 +505,7 @@
   <sheetPr codeName="PurchaseEntries"/>
   <dimension ref="A1:N1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5651,7 +5649,7 @@
           <x14:formula1>
             <xm:f>Lists!$B$2:$B$8</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:J1001</xm:sqref>
+          <xm:sqref>I2:I1001</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
